--- a/prediction_tracker.xlsx
+++ b/prediction_tracker.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nboys\College Basketball Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E78628-4C79-4690-91BF-772833BC3C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8991E9B-29CD-4AF9-906B-8B4F7C00F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="75" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51720" yWindow="75" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-11-09" sheetId="1" r:id="rId1"/>
     <sheet name="2025-11-10" sheetId="2" r:id="rId2"/>
     <sheet name="2025-11-11" sheetId="3" r:id="rId3"/>
     <sheet name="2025-11-12" sheetId="4" r:id="rId4"/>
+    <sheet name="2025-11-13" sheetId="5" r:id="rId5"/>
+    <sheet name="2025-11-14" sheetId="6" r:id="rId6"/>
+    <sheet name="2025-11-15" sheetId="7" r:id="rId7"/>
+    <sheet name="2025-11-16" sheetId="8" r:id="rId8"/>
+    <sheet name="2025-11-17" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="480">
   <si>
     <t>prediction_date</t>
   </si>
@@ -571,6 +576,15 @@
     <t>2025-11-12</t>
   </si>
   <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>North Florida</t>
+  </si>
+  <si>
+    <t>BET North Florida to COVER</t>
+  </si>
+  <si>
     <t>Hawaii</t>
   </si>
   <si>
@@ -580,269 +594,918 @@
     <t>BET Mississippi Valley St. to COVER</t>
   </si>
   <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>North Florida</t>
-  </si>
-  <si>
-    <t>BET North Florida to COVER</t>
-  </si>
-  <si>
     <t>South Florida</t>
   </si>
   <si>
+    <t>BET Coppin St. to COVER</t>
+  </si>
+  <si>
+    <t>Georgetown</t>
+  </si>
+  <si>
+    <t>Binghamton</t>
+  </si>
+  <si>
+    <t>BET Binghamton to COVER</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Eastern Kentucky</t>
+  </si>
+  <si>
+    <t>BET Eastern Kentucky to COVER</t>
+  </si>
+  <si>
+    <t>Oral Roberts</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>BET Oral Roberts to COVER</t>
+  </si>
+  <si>
+    <t>N.C. State</t>
+  </si>
+  <si>
+    <t>UNC Greensboro</t>
+  </si>
+  <si>
+    <t>BET UNC Greensboro to COVER</t>
+  </si>
+  <si>
+    <t>Prairie View A&amp;M</t>
+  </si>
+  <si>
+    <t>BET Prairie View A&amp;M to COVER</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>BET San Diego to COVER</t>
+  </si>
+  <si>
     <t>Texas</t>
   </si>
   <si>
     <t>Fairleigh Dickinson</t>
   </si>
   <si>
-    <t>LEAN Fairleigh Dickinson (Medium confidence)</t>
-  </si>
-  <si>
-    <t>Prairie View A&amp;M</t>
+    <t>BET Fairleigh Dickinson to COVER</t>
+  </si>
+  <si>
+    <t>Canisius</t>
+  </si>
+  <si>
+    <t>Mercyhurst</t>
+  </si>
+  <si>
+    <t>BET Canisius to COVER</t>
+  </si>
+  <si>
+    <t>Longwood</t>
+  </si>
+  <si>
+    <t>BET Longwood to COVER</t>
+  </si>
+  <si>
+    <t>Utah Tech</t>
+  </si>
+  <si>
+    <t>Western Michigan</t>
+  </si>
+  <si>
+    <t>Purdue Fort Wayne</t>
+  </si>
+  <si>
+    <t>LEAN Western Michigan (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Milwaukee</t>
+  </si>
+  <si>
+    <t>LEAN Milwaukee (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Little Rock</t>
+  </si>
+  <si>
+    <t>LEAN Little Rock (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>LEAN Oakland (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>LEAN Missouri (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Utah St.</t>
+  </si>
+  <si>
+    <t>Weber St.</t>
+  </si>
+  <si>
+    <t>LEAN Weber St. (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>LEAN Boston University (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>Nicholls St.</t>
+  </si>
+  <si>
+    <t>LEAN Valparaiso (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Oregon St.</t>
+  </si>
+  <si>
+    <t>North Texas</t>
+  </si>
+  <si>
+    <t>LEAN Oregon St. (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Fresno St.</t>
+  </si>
+  <si>
+    <t>UC San Diego</t>
+  </si>
+  <si>
+    <t>LEAN Fresno St. (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>LEAN Bryant (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Texas Southern</t>
+  </si>
+  <si>
+    <t>Samford</t>
+  </si>
+  <si>
+    <t>LEAN Texas Southern (Medium confidence)</t>
+  </si>
+  <si>
+    <t>St. Bonaventure</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>VCU</t>
+  </si>
+  <si>
+    <t>Saint Peter's</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Eastern Washington</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Long Beach St.</t>
+  </si>
+  <si>
+    <t>Evansville</t>
+  </si>
+  <si>
+    <t>Middle Tennessee</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Colorado St.</t>
+  </si>
+  <si>
+    <t>Cal Poly</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>East Tennessee St.</t>
+  </si>
+  <si>
+    <t>Northern Kentucky</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Tennessee Martin</t>
+  </si>
+  <si>
+    <t>Texas St.</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>Virginia Tech</t>
+  </si>
+  <si>
+    <t>Saint Joseph's</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Portland St.</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Elon</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>South Dakota St.</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Southern Indiana</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>FIU</t>
+  </si>
+  <si>
+    <t>LEAN FIU (Medium confidence)</t>
+  </si>
+  <si>
+    <t>UMass Lowell</t>
+  </si>
+  <si>
+    <t>LEAN UMass Lowell (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Michigan St.</t>
+  </si>
+  <si>
+    <t>San Jose St.</t>
+  </si>
+  <si>
+    <t>LEAN San Jose St. (Medium confidence)</t>
+  </si>
+  <si>
+    <t>St. Thomas</t>
+  </si>
+  <si>
+    <t>Green Bay</t>
+  </si>
+  <si>
+    <t>LEAN Green Bay (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Grambling St.</t>
+  </si>
+  <si>
+    <t>Southern Miss</t>
+  </si>
+  <si>
+    <t>LEAN Grambling St. (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Alabama A&amp;M</t>
+  </si>
+  <si>
+    <t>Charleston Southern</t>
+  </si>
+  <si>
+    <t>LEAN Alabama A&amp;M (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Lafayette</t>
+  </si>
+  <si>
+    <t>LEAN Lafayette (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>LEAN Monmouth (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>LEAN Le Moyne (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Kansas St.</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Wichita St.</t>
+  </si>
+  <si>
+    <t>Loyola Chicago</t>
+  </si>
+  <si>
+    <t>South Alabama</t>
+  </si>
+  <si>
+    <t>Central Michigan</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Houston Christian</t>
+  </si>
+  <si>
+    <t>Louisiana Monroe</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
+  </si>
+  <si>
+    <t>Arizona St.</t>
+  </si>
+  <si>
+    <t>BET Arizona St. to COVER</t>
+  </si>
+  <si>
+    <t>BET DePaul to COVER</t>
+  </si>
+  <si>
+    <t>UAB</t>
+  </si>
+  <si>
+    <t>BET UAB to COVER</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>BET Colorado to COVER</t>
+  </si>
+  <si>
+    <t>BET TCU to COVER</t>
+  </si>
+  <si>
+    <t>Washington St.</t>
+  </si>
+  <si>
+    <t>BET Washington St. to COVER</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>BET UCLA to COVER</t>
+  </si>
+  <si>
+    <t>BET Montana to COVER</t>
+  </si>
+  <si>
+    <t>Hofstra</t>
+  </si>
+  <si>
+    <t>BET Bucknell to COVER</t>
+  </si>
+  <si>
+    <t>Sacramento St.</t>
+  </si>
+  <si>
+    <t>BET UC Davis to COVER</t>
+  </si>
+  <si>
+    <t>BET Lindenwood to COVER</t>
+  </si>
+  <si>
+    <t>BET Brown to COVER</t>
+  </si>
+  <si>
+    <t>BET Texas A&amp;M to COVER</t>
+  </si>
+  <si>
+    <t>BET Central Michigan to COVER</t>
+  </si>
+  <si>
+    <t>BET Hawaii to COVER</t>
+  </si>
+  <si>
+    <t>McNeese St.</t>
+  </si>
+  <si>
+    <t>BET McNeese St. to COVER</t>
+  </si>
+  <si>
+    <t>BET Tulane to COVER</t>
+  </si>
+  <si>
+    <t>Iona</t>
+  </si>
+  <si>
+    <t>BET Iona to COVER</t>
+  </si>
+  <si>
+    <t>BET Saint Mary's to COVER</t>
+  </si>
+  <si>
+    <t>BET USC to COVER</t>
+  </si>
+  <si>
+    <t>Towson</t>
+  </si>
+  <si>
+    <t>BET Towson to COVER</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>LEAN Georgia (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>LEAN Iowa (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Indiana St.</t>
+  </si>
+  <si>
+    <t>LEAN Indiana St. (Medium confidence)</t>
+  </si>
+  <si>
+    <t>LEAN Rutgers (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Albany</t>
+  </si>
+  <si>
+    <t>LEAN Rhode Island (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>BET Air Force to COVER</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>New Mexico St.</t>
+  </si>
+  <si>
+    <t>BET New Mexico St. to COVER</t>
+  </si>
+  <si>
+    <t>Utah Valley</t>
+  </si>
+  <si>
+    <t>BET Fresno St. to COVER</t>
+  </si>
+  <si>
+    <t>BET SMU to COVER</t>
+  </si>
+  <si>
+    <t>Winthrop</t>
+  </si>
+  <si>
+    <t>BET Winthrop to COVER</t>
+  </si>
+  <si>
+    <t>BET Georgetown to COVER</t>
+  </si>
+  <si>
+    <t>NJIT</t>
+  </si>
+  <si>
+    <t>BET NJIT to COVER</t>
+  </si>
+  <si>
+    <t>BET Davidson to COVER</t>
+  </si>
+  <si>
+    <t>UT Arlington</t>
+  </si>
+  <si>
+    <t>BET UT Arlington to COVER</t>
+  </si>
+  <si>
+    <t>Bellarmine</t>
+  </si>
+  <si>
+    <t>BET Bellarmine to COVER</t>
+  </si>
+  <si>
+    <t>New Haven</t>
+  </si>
+  <si>
+    <t>BET New Haven to COVER</t>
+  </si>
+  <si>
+    <t>BET North Alabama to COVER</t>
+  </si>
+  <si>
+    <t>Grand Canyon</t>
+  </si>
+  <si>
+    <t>BET Saint Louis to COVER</t>
+  </si>
+  <si>
+    <t>Louisiana Tech</t>
+  </si>
+  <si>
+    <t>Jackson St.</t>
+  </si>
+  <si>
+    <t>BET Louisiana Tech to COVER</t>
+  </si>
+  <si>
+    <t>BET VMI to COVER</t>
+  </si>
+  <si>
+    <t>BET Texas St. to COVER</t>
+  </si>
+  <si>
+    <t>BET Queens to COVER</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>BET Nebraska to COVER</t>
+  </si>
+  <si>
+    <t>BET Mercyhurst to COVER</t>
+  </si>
+  <si>
+    <t>Florida Gulf Coast</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>BET Florida Gulf Coast to COVER</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>BET Temple to COVER</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>BET Connecticut to COVER</t>
+  </si>
+  <si>
+    <t>BET Northeastern to COVER</t>
+  </si>
+  <si>
+    <t>BET San Francisco to COVER</t>
+  </si>
+  <si>
+    <t>Youngstown St.</t>
+  </si>
+  <si>
+    <t>BET St. Bonaventure to COVER</t>
+  </si>
+  <si>
+    <t>BET Wyoming to COVER</t>
+  </si>
+  <si>
+    <t>BET Radford to COVER</t>
+  </si>
+  <si>
+    <t>BET Denver to COVER</t>
+  </si>
+  <si>
+    <t>UC Irvine</t>
+  </si>
+  <si>
+    <t>BET UC Irvine to COVER</t>
+  </si>
+  <si>
+    <t>BET UC San Diego to COVER</t>
+  </si>
+  <si>
+    <t>BET Penn St. to COVER</t>
+  </si>
+  <si>
+    <t>BET Marquette to COVER</t>
+  </si>
+  <si>
+    <t>Gardner Webb</t>
+  </si>
+  <si>
+    <t>BET Elon to COVER</t>
+  </si>
+  <si>
+    <t>BET Santa Clara to COVER</t>
+  </si>
+  <si>
+    <t>BET Boston University to COVER</t>
+  </si>
+  <si>
+    <t>UNC Wilmington</t>
+  </si>
+  <si>
+    <t>USC Upstate</t>
+  </si>
+  <si>
+    <t>BET UNC Wilmington to COVER</t>
+  </si>
+  <si>
+    <t>BET Villanova to COVER</t>
+  </si>
+  <si>
+    <t>Boise St.</t>
+  </si>
+  <si>
+    <t>BET Boise St. to COVER</t>
+  </si>
+  <si>
+    <t>BET South Alabama to COVER</t>
+  </si>
+  <si>
+    <t>LEAN Murray St. (Medium confidence)</t>
+  </si>
+  <si>
+    <t>LEAN George Washington (Medium confidence)</t>
+  </si>
+  <si>
+    <t>LEAN Virginia (Medium confidence)</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>LEAN Utah St. (Medium confidence)</t>
+  </si>
+  <si>
+    <t>St. John's</t>
+  </si>
+  <si>
+    <t>LEAN St. John's (Medium confidence)</t>
+  </si>
+  <si>
+    <t>LEAN Kansas (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Stony Brook</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>George Mason</t>
+  </si>
+  <si>
+    <t>2025-11-16</t>
+  </si>
+  <si>
+    <t>BET Long Beach St. to COVER</t>
+  </si>
+  <si>
+    <t>Kennesaw St.</t>
+  </si>
+  <si>
+    <t>BET Kennesaw St. to COVER</t>
+  </si>
+  <si>
+    <t>BET Cleveland St. to COVER</t>
+  </si>
+  <si>
+    <t>BET Holy Cross to COVER</t>
+  </si>
+  <si>
+    <t>BET Auburn to COVER</t>
+  </si>
+  <si>
+    <t>BET Loyola Chicago to COVER</t>
+  </si>
+  <si>
+    <t>BET Maine to COVER</t>
+  </si>
+  <si>
+    <t>BET Miami FL to COVER</t>
+  </si>
+  <si>
+    <t>BET Alabama A&amp;M to COVER</t>
+  </si>
+  <si>
+    <t>BET Valparaiso to COVER</t>
+  </si>
+  <si>
+    <t>BET UMBC to COVER</t>
+  </si>
+  <si>
+    <t>BET Marist to COVER</t>
+  </si>
+  <si>
+    <t>BET South Dakota to COVER</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>BET Purdue to COVER</t>
+  </si>
+  <si>
+    <t>BET Sacramento St. to COVER</t>
+  </si>
+  <si>
+    <t>BET Memphis to COVER</t>
+  </si>
+  <si>
+    <t>LEAN Oklahoma St. (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Incarnate Word</t>
+  </si>
+  <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>BET Louisiana Monroe to COVER</t>
+  </si>
+  <si>
+    <t>North Dakota St.</t>
+  </si>
+  <si>
+    <t>BET North Dakota St. to COVER</t>
+  </si>
+  <si>
+    <t>BET Le Moyne to COVER</t>
+  </si>
+  <si>
+    <t>BET Kentucky to COVER</t>
+  </si>
+  <si>
+    <t>BET Siena to COVER</t>
+  </si>
+  <si>
+    <t>BET Florida A&amp;M to COVER</t>
+  </si>
+  <si>
+    <t>BET Oregon to COVER</t>
+  </si>
+  <si>
+    <t>BET Duke to COVER</t>
+  </si>
+  <si>
+    <t>BET N.C. State to COVER</t>
+  </si>
+  <si>
+    <t>BET Kansas St. to COVER</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Drake</t>
+  </si>
+  <si>
+    <t>BET Charleston to COVER</t>
+  </si>
+  <si>
+    <t>BET UCF to COVER</t>
+  </si>
+  <si>
+    <t>Southern Utah</t>
+  </si>
+  <si>
+    <t>LEAN Southern Utah (Medium confidence)</t>
   </si>
   <si>
     <t>LEAN Prairie View A&amp;M (Medium confidence)</t>
   </si>
   <si>
-    <t>Georgetown</t>
-  </si>
-  <si>
-    <t>Binghamton</t>
-  </si>
-  <si>
-    <t>LEAN Binghamton (Medium confidence)</t>
-  </si>
-  <si>
-    <t>N.C. State</t>
-  </si>
-  <si>
-    <t>UNC Greensboro</t>
-  </si>
-  <si>
-    <t>LEAN UNC Greensboro (Medium confidence)</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Oakland</t>
-  </si>
-  <si>
-    <t>LEAN Oakland (Medium confidence)</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>Eastern Kentucky</t>
-  </si>
-  <si>
-    <t>LEAN Eastern Kentucky (Medium confidence)</t>
-  </si>
-  <si>
-    <t>Utah St.</t>
-  </si>
-  <si>
-    <t>Weber St.</t>
-  </si>
-  <si>
-    <t>LEAN Weber St. (Medium confidence)</t>
-  </si>
-  <si>
-    <t>Milwaukee</t>
-  </si>
-  <si>
-    <t>LEAN Milwaukee (Medium confidence)</t>
-  </si>
-  <si>
-    <t>VCU</t>
-  </si>
-  <si>
-    <t>Saint Peter's</t>
-  </si>
-  <si>
-    <t>LEAN Saint Peter's (Medium confidence)</t>
-  </si>
-  <si>
-    <t>Bradley</t>
-  </si>
-  <si>
-    <t>Tennessee Martin</t>
-  </si>
-  <si>
-    <t>LEAN Tennessee Martin (Medium confidence)</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>Colorado St.</t>
-  </si>
-  <si>
-    <t>Cal Poly</t>
-  </si>
-  <si>
-    <t>Little Rock</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
-  <si>
-    <t>Long Beach St.</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>Stanford</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>South Dakota St.</t>
-  </si>
-  <si>
-    <t>Oral Roberts</t>
-  </si>
-  <si>
-    <t>Tulsa</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Elon</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Southern Illinois</t>
-  </si>
-  <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
-    <t>Portland St.</t>
-  </si>
-  <si>
-    <t>East Tennessee St.</t>
-  </si>
-  <si>
-    <t>Northern Kentucky</t>
-  </si>
-  <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
-    <t>Saint Joseph's</t>
-  </si>
-  <si>
-    <t>Seattle</t>
-  </si>
-  <si>
-    <t>Eastern Washington</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>Southern Indiana</t>
-  </si>
-  <si>
-    <t>St. Bonaventure</t>
-  </si>
-  <si>
-    <t>Siena</t>
-  </si>
-  <si>
-    <t>Western Michigan</t>
-  </si>
-  <si>
-    <t>Purdue Fort Wayne</t>
-  </si>
-  <si>
-    <t>Longwood</t>
-  </si>
-  <si>
-    <t>San Diego</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Valparaiso</t>
-  </si>
-  <si>
-    <t>Nicholls St.</t>
-  </si>
-  <si>
-    <t>Fresno St.</t>
-  </si>
-  <si>
-    <t>UC San Diego</t>
-  </si>
-  <si>
-    <t>Texas St.</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>Boston University</t>
-  </si>
-  <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>Texas Southern</t>
-  </si>
-  <si>
-    <t>Samford</t>
-  </si>
-  <si>
-    <t>Oregon St.</t>
-  </si>
-  <si>
-    <t>North Texas</t>
-  </si>
-  <si>
-    <t>Evansville</t>
-  </si>
-  <si>
-    <t>Middle Tennessee</t>
-  </si>
-  <si>
-    <t>Canisius</t>
-  </si>
-  <si>
-    <t>Mercyhurst</t>
-  </si>
-  <si>
-    <t>Utah Tech</t>
+    <t>LEAN Arizona St. (Medium confidence)</t>
+  </si>
+  <si>
+    <t>LEAN Pittsburgh (Medium confidence)</t>
+  </si>
+  <si>
+    <t>LEAN Clemson (Medium confidence)</t>
+  </si>
+  <si>
+    <t>Rice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -873,7 +1536,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -941,11 +1604,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -958,6 +1696,21 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2369,7 +3122,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -3955,20 +4708,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1015625" customWidth="1"/>
     <col min="4" max="4" width="6.3671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.15625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.9453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.9453125" customWidth="1"/>
+    <col min="7" max="7" width="39.26171875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.3671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1015625" customWidth="1"/>
+    <col min="11" max="12" width="12.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4020,10 +4775,10 @@
         <v>183</v>
       </c>
       <c r="D2">
-        <v>-42.5</v>
+        <v>-41.5</v>
       </c>
       <c r="E2">
-        <v>0.2356587563693914</v>
+        <v>0.1502926364174007</v>
       </c>
       <c r="F2" t="s">
         <v>89</v>
@@ -4031,14 +4786,17 @@
       <c r="G2" t="s">
         <v>184</v>
       </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
       <c r="J2">
-        <v>20.141888133726891</v>
+        <v>19.168040555318541</v>
       </c>
       <c r="K2">
-        <v>-15.36373273323615</v>
+        <v>-20.3044799890958</v>
       </c>
       <c r="L2">
-        <v>0.62416658060095564</v>
+        <v>0.79003264261659734</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4052,10 +4810,10 @@
         <v>186</v>
       </c>
       <c r="D3">
-        <v>-42.5</v>
+        <v>-41.5</v>
       </c>
       <c r="E3">
-        <v>0.26731309497449818</v>
+        <v>0.15608454557699181</v>
       </c>
       <c r="F3" t="s">
         <v>89</v>
@@ -4063,14 +4821,17 @@
       <c r="G3" t="s">
         <v>187</v>
       </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
       <c r="J3">
-        <v>19.168040555318541</v>
+        <v>20.141888133726891</v>
       </c>
       <c r="K3">
-        <v>-20.3044799890958</v>
+        <v>-15.36373273323615</v>
       </c>
       <c r="L3">
-        <v>0.79003264261659734</v>
+        <v>0.62416658060095564</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4087,13 +4848,16 @@
         <v>-34.5</v>
       </c>
       <c r="E4">
-        <v>0.31297281836044022</v>
+        <v>0.19259136942210711</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>189</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
       <c r="J4">
         <v>19.57313946734228</v>
@@ -4110,31 +4874,34 @@
         <v>181</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D5">
-        <v>-31.5</v>
+        <v>-27.5</v>
       </c>
       <c r="E5">
-        <v>0.31363777543583338</v>
+        <v>0.20558090992960901</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
       </c>
       <c r="J5">
-        <v>19.94235761160224</v>
+        <v>14.11092782591582</v>
       </c>
       <c r="K5">
-        <v>-16.306441938759381</v>
+        <v>-11.61630721574052</v>
       </c>
       <c r="L5">
-        <v>0.75449330227079636</v>
+        <v>0.60306239004509921</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4142,31 +4909,34 @@
         <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D6">
-        <v>-31.5</v>
+        <v>-28.5</v>
       </c>
       <c r="E6">
-        <v>0.32650350343007017</v>
+        <v>0.22521117150295361</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>17.28636468075328</v>
+        <v>13.777836813855769</v>
       </c>
       <c r="K6">
-        <v>-13.809465638388049</v>
+        <v>-8.62094155510907</v>
       </c>
       <c r="L6">
-        <v>0.68602351096020975</v>
+        <v>0.3993320339239767</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4174,31 +4944,34 @@
         <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D7">
-        <v>-27.5</v>
+        <v>6.5</v>
       </c>
       <c r="E7">
-        <v>0.34725764926519459</v>
+        <v>0.77314813694657925</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>196</v>
+        <v>198</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
       </c>
       <c r="J7">
-        <v>14.11092782591582</v>
+        <v>-11.59604039733264</v>
       </c>
       <c r="K7">
-        <v>-11.61630721574052</v>
+        <v>5.7294357227117994</v>
       </c>
       <c r="L7">
-        <v>0.60306239004509921</v>
+        <v>-0.40289132429717639</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4206,22 +4979,25 @@
         <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D8">
-        <v>-31.5</v>
+        <v>-30.5</v>
       </c>
       <c r="E8">
-        <v>0.3486148710578662</v>
+        <v>0.2269996715846552</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>201</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
       </c>
       <c r="J8">
         <v>18.4658804467647</v>
@@ -4238,31 +5014,34 @@
         <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D9">
-        <v>-30.5</v>
+        <v>-31.5</v>
       </c>
       <c r="E9">
-        <v>0.36224412430839192</v>
+        <v>0.234641864917041</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
       <c r="J9">
-        <v>9.5475478812264196</v>
+        <v>17.28636468075328</v>
       </c>
       <c r="K9">
-        <v>-19.471155585769321</v>
+        <v>-13.809465638388049</v>
       </c>
       <c r="L9">
-        <v>0.50465810745831763</v>
+        <v>0.68602351096020975</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4270,31 +5049,34 @@
         <v>181</v>
       </c>
       <c r="B10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D10">
-        <v>-28.5</v>
+        <v>1.5</v>
       </c>
       <c r="E10">
-        <v>0.38093335776015208</v>
+        <v>0.74822241707298354</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
       </c>
       <c r="J10">
-        <v>13.777836813855769</v>
+        <v>0.21876415607404451</v>
       </c>
       <c r="K10">
-        <v>-8.62094155510907</v>
+        <v>-0.45084252315574241</v>
       </c>
       <c r="L10">
-        <v>0.3993320339239767</v>
+        <v>1.73117173825693E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4302,31 +5084,34 @@
         <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D11">
-        <v>-21.5</v>
+        <v>-31.5</v>
       </c>
       <c r="E11">
-        <v>0.38405952466298587</v>
+        <v>0.2549993509613166</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
       </c>
       <c r="J11">
-        <v>14.41442270796334</v>
+        <v>19.94235761160224</v>
       </c>
       <c r="K11">
-        <v>-9.4787526800986939</v>
+        <v>-16.306441938759381</v>
       </c>
       <c r="L11">
-        <v>0.5630592661377295</v>
+        <v>0.75449330227079636</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4334,31 +5119,34 @@
         <v>181</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D12">
-        <v>-24.5</v>
+        <v>1.5</v>
       </c>
       <c r="E12">
-        <v>0.38886550197369002</v>
+        <v>0.72508917544728191</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
       </c>
       <c r="J12">
-        <v>11.7799915315166</v>
+        <v>-0.52377924415108623</v>
       </c>
       <c r="K12">
-        <v>-10.227960328060851</v>
+        <v>2.8575358425396762</v>
       </c>
       <c r="L12">
-        <v>0.45833541976982789</v>
+        <v>-4.6702662364815399E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4366,31 +5154,34 @@
         <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>-21.5</v>
+        <v>1.5</v>
       </c>
       <c r="E13">
-        <v>0.39025875951733208</v>
+        <v>0.70227275130093814</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
       </c>
       <c r="J13">
-        <v>10.79631156150411</v>
+        <v>-2.472729542766515</v>
       </c>
       <c r="K13">
-        <v>-11.75849257505827</v>
+        <v>2.213292124111192</v>
       </c>
       <c r="L13">
-        <v>0.54667861793786043</v>
+        <v>-0.1248021714338246</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4398,31 +5189,34 @@
         <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>215</v>
       </c>
       <c r="D14">
-        <v>-15.5</v>
+        <v>2.5</v>
       </c>
       <c r="E14">
-        <v>0.39445356703857748</v>
+        <v>0.68623975966058004</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>216</v>
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
       </c>
       <c r="J14">
-        <v>9.1787325196722964</v>
+        <v>6.2803439036684674</v>
       </c>
       <c r="K14">
-        <v>-10.136909895174201</v>
+        <v>2.3032402144002759</v>
       </c>
       <c r="L14">
-        <v>0.46709813569799058</v>
+        <v>0.1016273145190162</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4430,31 +5224,34 @@
         <v>181</v>
       </c>
       <c r="B15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" t="s">
         <v>217</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15">
+        <v>3.5</v>
+      </c>
+      <c r="E15">
+        <v>0.68608285729144725</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
         <v>218</v>
       </c>
-      <c r="D15">
-        <v>-17.5</v>
-      </c>
-      <c r="E15">
-        <v>0.40483189345376391</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
+      <c r="H15" t="s">
+        <v>21</v>
       </c>
       <c r="J15">
-        <v>13.80561568304279</v>
+        <v>0.2818606154399248</v>
       </c>
       <c r="K15">
-        <v>-8.4441827437069037</v>
+        <v>3.8396791387876021</v>
       </c>
       <c r="L15">
-        <v>0.53274543397075158</v>
+        <v>-8.4961345834574806E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4462,31 +5259,34 @@
         <v>181</v>
       </c>
       <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>219</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16">
+        <v>-24.5</v>
+      </c>
+      <c r="E16">
+        <v>0.31491034124025319</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
         <v>220</v>
       </c>
-      <c r="D16">
-        <v>-17.5</v>
-      </c>
-      <c r="E16">
-        <v>0.40630218518888372</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
+      <c r="H16" t="s">
+        <v>17</v>
       </c>
       <c r="J16">
-        <v>7.9753503631207678</v>
+        <v>11.7799915315166</v>
       </c>
       <c r="K16">
-        <v>-7.5449686694107072</v>
+        <v>-10.227960328060851</v>
       </c>
       <c r="L16">
-        <v>0.39004174264862479</v>
+        <v>0.45833541976982789</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4503,13 +5303,16 @@
         <v>-20.5</v>
       </c>
       <c r="E17">
-        <v>0.41399429441799129</v>
+        <v>0.32682203140303878</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>222</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
       </c>
       <c r="J17">
         <v>4.5651446564241382</v>
@@ -4526,31 +5329,34 @@
         <v>181</v>
       </c>
       <c r="B18" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D18">
-        <v>-11.5</v>
+        <v>-30.5</v>
       </c>
       <c r="E18">
-        <v>0.41772888457546742</v>
+        <v>0.33269514229443692</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>225</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
       </c>
       <c r="J18">
-        <v>10.25457737951082</v>
+        <v>9.5475478812264196</v>
       </c>
       <c r="K18">
-        <v>-1.4456772657823651</v>
+        <v>-19.471155585769321</v>
       </c>
       <c r="L18">
-        <v>0.26883217453972819</v>
+        <v>0.50465810745831763</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4558,31 +5364,34 @@
         <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
       <c r="D19">
-        <v>-15.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E19">
-        <v>0.41827245509197442</v>
+        <v>0.66580533293153243</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>227</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
       </c>
       <c r="J19">
-        <v>6.0875452523731184</v>
+        <v>7.0310080281345648</v>
       </c>
       <c r="K19">
-        <v>-6.6324793254169379</v>
+        <v>-1.0019832143485561</v>
       </c>
       <c r="L19">
-        <v>0.33159751288544331</v>
+        <v>0.1141766710082118</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4590,31 +5399,34 @@
         <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="D20">
-        <v>-14.5</v>
+        <v>-22.5</v>
       </c>
       <c r="E20">
-        <v>0.4275718582962541</v>
+        <v>0.3397502682633754</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>230</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
       </c>
       <c r="J20">
-        <v>4.7741077323974404</v>
+        <v>14.41442270796334</v>
       </c>
       <c r="K20">
-        <v>-7.6154448797047962</v>
+        <v>-9.4787526800986939</v>
       </c>
       <c r="L20">
-        <v>0.32457394288130159</v>
+        <v>0.5630592661377295</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4622,31 +5434,34 @@
         <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C21" t="s">
-        <v>227</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <v>-16.5</v>
+        <v>-2.5</v>
       </c>
       <c r="E21">
-        <v>0.42893495892034661</v>
+        <v>0.62589481481169695</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>232</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
       </c>
       <c r="J21">
-        <v>7.4130879073406817</v>
+        <v>3.3360799756163568</v>
       </c>
       <c r="K21">
-        <v>-10.205358009521049</v>
+        <v>6.4782738091474812</v>
       </c>
       <c r="L21">
-        <v>0.3773169740285548</v>
+        <v>-7.4035249484396701E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4654,31 +5469,34 @@
         <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D22">
-        <v>6.5</v>
+        <v>-2.5</v>
       </c>
       <c r="E22">
-        <v>0.56620943071034102</v>
+        <v>0.6226202376504939</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>235</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
       </c>
       <c r="J22">
-        <v>-11.59604039733264</v>
+        <v>2.1729260966750701</v>
       </c>
       <c r="K22">
-        <v>5.7294357227117994</v>
+        <v>4.4661770552955602</v>
       </c>
       <c r="L22">
-        <v>-0.40289132429717639</v>
+        <v>-4.4980642444554499E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4686,31 +5504,34 @@
         <v>181</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D23">
-        <v>-9.5</v>
+        <v>-2.5</v>
       </c>
       <c r="E23">
-        <v>0.4433276857546079</v>
+        <v>0.61754829272905265</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>238</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
       </c>
       <c r="J23">
-        <v>1.232066033215006</v>
+        <v>1.8273167316075101</v>
       </c>
       <c r="K23">
-        <v>-6.0126918623652443</v>
+        <v>4.797750864600431</v>
       </c>
       <c r="L23">
-        <v>0.18314572035360899</v>
+        <v>-7.7174113002536501E-2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4718,31 +5539,34 @@
         <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D24">
-        <v>-11.5</v>
+        <v>-1.5</v>
       </c>
       <c r="E24">
-        <v>0.44362492408845777</v>
+        <v>0.61193397921835957</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>241</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
       </c>
       <c r="J24">
-        <v>-1.3075833160467449</v>
+        <v>-0.42882782480739928</v>
       </c>
       <c r="K24">
-        <v>-3.7198527554254501</v>
+        <v>4.5768306974989201</v>
       </c>
       <c r="L24">
-        <v>6.6247242391556202E-2</v>
+        <v>-0.1354056895594366</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4750,31 +5574,34 @@
         <v>181</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>-12.5</v>
+        <v>-1.5</v>
       </c>
       <c r="E25">
-        <v>0.443758644609486</v>
+        <v>0.60773282009876683</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>243</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
       </c>
       <c r="J25">
-        <v>8.0304675008028426</v>
+        <v>-1.667452475622113</v>
       </c>
       <c r="K25">
-        <v>-3.3408596988921739</v>
+        <v>0.66675272694145349</v>
       </c>
       <c r="L25">
-        <v>0.27386980148080831</v>
+        <v>-5.7837747719459001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4782,31 +5609,34 @@
         <v>181</v>
       </c>
       <c r="B26" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C26" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D26">
-        <v>-7.5</v>
+        <v>2.5</v>
       </c>
       <c r="E26">
-        <v>0.44743562266505033</v>
+        <v>0.60553821021647314</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>246</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
       </c>
       <c r="J26">
-        <v>4.5446156500031378</v>
+        <v>-2.7305211124847242</v>
       </c>
       <c r="K26">
-        <v>-2.1007102921567049</v>
+        <v>-2.118907297634308</v>
       </c>
       <c r="L26">
-        <v>0.1605918314369042</v>
+        <v>-1.8274486420623699E-2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4814,16 +5644,16 @@
         <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C27" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="D27">
-        <v>-11.5</v>
+        <v>-9.5</v>
       </c>
       <c r="E27">
-        <v>0.45045773470564882</v>
+        <v>0.59777899906984722</v>
       </c>
       <c r="F27" t="s">
         <v>36</v>
@@ -4831,14 +5661,17 @@
       <c r="G27" t="s">
         <v>37</v>
       </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
       <c r="J27">
-        <v>6.7051993361191933</v>
+        <v>-1.4714888636061969</v>
       </c>
       <c r="K27">
-        <v>1.405707772455159</v>
+        <v>-3.0926125965827111</v>
       </c>
       <c r="L27">
-        <v>0.1107471943998749</v>
+        <v>4.4446974594059802E-2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4846,16 +5679,16 @@
         <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="D28">
-        <v>-8.5</v>
+        <v>-21.5</v>
       </c>
       <c r="E28">
-        <v>0.45833741931160449</v>
+        <v>0.40363209096481611</v>
       </c>
       <c r="F28" t="s">
         <v>36</v>
@@ -4863,14 +5696,17 @@
       <c r="G28" t="s">
         <v>37</v>
       </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
       <c r="J28">
-        <v>-3.7866005811404619</v>
+        <v>10.79631156150411</v>
       </c>
       <c r="K28">
-        <v>-9.0765991977871323</v>
+        <v>-11.75849257505827</v>
       </c>
       <c r="L28">
-        <v>0.1427365463356402</v>
+        <v>0.54667861793786043</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4878,16 +5714,16 @@
         <v>181</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D29">
-        <v>-7.5</v>
+        <v>-8.5</v>
       </c>
       <c r="E29">
-        <v>0.46088993404744028</v>
+        <v>0.58355373285034984</v>
       </c>
       <c r="F29" t="s">
         <v>36</v>
@@ -4895,14 +5731,17 @@
       <c r="G29" t="s">
         <v>37</v>
       </c>
+      <c r="H29" t="s">
+        <v>21</v>
+      </c>
       <c r="J29">
-        <v>0.97063627800470442</v>
+        <v>-3.7866005811404619</v>
       </c>
       <c r="K29">
-        <v>-0.32792161597215852</v>
+        <v>-9.0765991977871323</v>
       </c>
       <c r="L29">
-        <v>2.66096322986932E-2</v>
+        <v>0.1427365463356402</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4910,16 +5749,16 @@
         <v>181</v>
       </c>
       <c r="B30" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="D30">
-        <v>-8.5</v>
+        <v>-11.5</v>
       </c>
       <c r="E30">
-        <v>0.46273722487088242</v>
+        <v>0.43121316403090731</v>
       </c>
       <c r="F30" t="s">
         <v>36</v>
@@ -4927,14 +5766,17 @@
       <c r="G30" t="s">
         <v>37</v>
       </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
       <c r="J30">
-        <v>-1.4714888636061969</v>
+        <v>10.25457737951082</v>
       </c>
       <c r="K30">
-        <v>-3.0926125965827111</v>
+        <v>-1.4456772657823651</v>
       </c>
       <c r="L30">
-        <v>4.4446974594059802E-2</v>
+        <v>0.26883217453972819</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4942,16 +5784,16 @@
         <v>181</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D31">
-        <v>3.5</v>
+        <v>-2.5</v>
       </c>
       <c r="E31">
-        <v>0.52013488019397425</v>
+        <v>0.55632505021941248</v>
       </c>
       <c r="F31" t="s">
         <v>36</v>
@@ -4959,14 +5801,17 @@
       <c r="G31" t="s">
         <v>37</v>
       </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
       <c r="J31">
-        <v>0.2818606154399248</v>
+        <v>-2.642261937447032</v>
       </c>
       <c r="K31">
-        <v>3.8396791387876021</v>
+        <v>2.736212044786853</v>
       </c>
       <c r="L31">
-        <v>-8.4961345834574806E-2</v>
+        <v>-0.14567964462718949</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -4974,16 +5819,16 @@
         <v>181</v>
       </c>
       <c r="B32" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="D32">
-        <v>1.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E32">
-        <v>0.51755287721850862</v>
+        <v>0.55589449520210066</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
@@ -4991,14 +5836,17 @@
       <c r="G32" t="s">
         <v>37</v>
       </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
       <c r="J32">
-        <v>-2.472729542766515</v>
+        <v>6.0875452523731184</v>
       </c>
       <c r="K32">
-        <v>2.213292124111192</v>
+        <v>-6.6324793254169379</v>
       </c>
       <c r="L32">
-        <v>-0.1248021714338246</v>
+        <v>0.33159751288544331</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5006,16 +5854,16 @@
         <v>181</v>
       </c>
       <c r="B33" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C33" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="D33">
-        <v>1.5</v>
+        <v>-17.5</v>
       </c>
       <c r="E33">
-        <v>0.51738289791682335</v>
+        <v>0.44605074122325439</v>
       </c>
       <c r="F33" t="s">
         <v>36</v>
@@ -5023,14 +5871,17 @@
       <c r="G33" t="s">
         <v>37</v>
       </c>
+      <c r="H33" t="s">
+        <v>21</v>
+      </c>
       <c r="J33">
-        <v>0.21876415607404451</v>
+        <v>7.9753503631207678</v>
       </c>
       <c r="K33">
-        <v>-0.45084252315574241</v>
+        <v>-7.5449686694107072</v>
       </c>
       <c r="L33">
-        <v>1.73117173825693E-2</v>
+        <v>0.39004174264862479</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5038,16 +5889,16 @@
         <v>181</v>
       </c>
       <c r="B34" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>38</v>
       </c>
       <c r="D34">
-        <v>-2.5</v>
+        <v>-14.5</v>
       </c>
       <c r="E34">
-        <v>0.48557763185841751</v>
+        <v>0.44787478207614589</v>
       </c>
       <c r="F34" t="s">
         <v>36</v>
@@ -5055,14 +5906,17 @@
       <c r="G34" t="s">
         <v>37</v>
       </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
       <c r="J34">
-        <v>2.1729260966750701</v>
+        <v>4.7741077323974404</v>
       </c>
       <c r="K34">
-        <v>4.4661770552955602</v>
+        <v>-7.6154448797047962</v>
       </c>
       <c r="L34">
-        <v>-4.4980642444554499E-2</v>
+        <v>0.32457394288130159</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5070,16 +5924,16 @@
         <v>181</v>
       </c>
       <c r="B35" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D35">
-        <v>1.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E35">
-        <v>0.51376159074513983</v>
+        <v>0.55188573462532775</v>
       </c>
       <c r="F35" t="s">
         <v>36</v>
@@ -5087,14 +5941,17 @@
       <c r="G35" t="s">
         <v>37</v>
       </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
       <c r="J35">
-        <v>-0.42882782480739928</v>
+        <v>4.5446156500031378</v>
       </c>
       <c r="K35">
-        <v>4.5768306974989201</v>
+        <v>-2.1007102921567049</v>
       </c>
       <c r="L35">
-        <v>-0.1354056895594366</v>
+        <v>0.1605918314369042</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5102,16 +5959,16 @@
         <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D36">
-        <v>-2.5</v>
+        <v>-15.5</v>
       </c>
       <c r="E36">
-        <v>0.48646280603113901</v>
+        <v>0.45079267775059467</v>
       </c>
       <c r="F36" t="s">
         <v>36</v>
@@ -5119,31 +5976,34 @@
       <c r="G36" t="s">
         <v>37</v>
       </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
       <c r="J36">
-        <v>-2.389909808371371</v>
+        <v>9.1787325196722964</v>
       </c>
       <c r="K36">
-        <v>-0.35070692616282878</v>
+        <v>-10.136909895174201</v>
       </c>
       <c r="L36">
-        <v>-5.2525655012845097E-2</v>
+        <v>0.46709813569799058</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>181</v>
+      <c r="A37" s="3">
+        <v>45973</v>
       </c>
       <c r="B37" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>266</v>
       </c>
       <c r="D37">
-        <v>-2.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E37">
-        <v>0.48804362734858459</v>
+        <v>0.53227816322962429</v>
       </c>
       <c r="F37" t="s">
         <v>36</v>
@@ -5151,14 +6011,17 @@
       <c r="G37" t="s">
         <v>37</v>
       </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
       <c r="J37">
-        <v>3.3360799756163568</v>
+        <v>-2.389909808371371</v>
       </c>
       <c r="K37">
-        <v>6.4782738091474812</v>
+        <v>-0.35070692616282878</v>
       </c>
       <c r="L37">
-        <v>-7.4035249484396701E-2</v>
+        <v>-5.2525655012845097E-2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5166,16 +6029,16 @@
         <v>181</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>268</v>
       </c>
       <c r="D38">
-        <v>-1.5</v>
+        <v>-12.5</v>
       </c>
       <c r="E38">
-        <v>0.48823768077121199</v>
+        <v>0.46922287539303359</v>
       </c>
       <c r="F38" t="s">
         <v>36</v>
@@ -5183,14 +6046,17 @@
       <c r="G38" t="s">
         <v>37</v>
       </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
       <c r="J38">
-        <v>-1.667452475622113</v>
+        <v>6.7051993361191933</v>
       </c>
       <c r="K38">
-        <v>0.66675272694145349</v>
+        <v>1.405707772455159</v>
       </c>
       <c r="L38">
-        <v>-5.7837747719459001E-2</v>
+        <v>0.1107471943998749</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5198,16 +6064,16 @@
         <v>181</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="C39" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="D39">
-        <v>-6.5</v>
+        <v>-12.5</v>
       </c>
       <c r="E39">
-        <v>0.48847030445192657</v>
+        <v>0.52975521705158968</v>
       </c>
       <c r="F39" t="s">
         <v>36</v>
@@ -5215,14 +6081,17 @@
       <c r="G39" t="s">
         <v>37</v>
       </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
       <c r="J39">
-        <v>7.0310080281345648</v>
+        <v>8.0304675008028426</v>
       </c>
       <c r="K39">
-        <v>-1.0019832143485561</v>
+        <v>-3.3408596988921739</v>
       </c>
       <c r="L39">
-        <v>0.1141766710082118</v>
+        <v>0.27386980148080831</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5230,16 +6099,16 @@
         <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="C40" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D40">
-        <v>1.5</v>
+        <v>-9.5</v>
       </c>
       <c r="E40">
-        <v>0.51030961391368457</v>
+        <v>0.51912285024823601</v>
       </c>
       <c r="F40" t="s">
         <v>36</v>
@@ -5247,14 +6116,17 @@
       <c r="G40" t="s">
         <v>37</v>
       </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
       <c r="J40">
-        <v>-2.7305211124847242</v>
+        <v>1.232066033215006</v>
       </c>
       <c r="K40">
-        <v>-2.118907297634308</v>
+        <v>-6.0126918623652443</v>
       </c>
       <c r="L40">
-        <v>-1.8274486420623699E-2</v>
+        <v>0.18314572035360899</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5262,16 +6134,16 @@
         <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="C41" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="D41">
-        <v>-2.5</v>
+        <v>-17.5</v>
       </c>
       <c r="E41">
-        <v>0.49186835972126808</v>
+        <v>0.51353092413921497</v>
       </c>
       <c r="F41" t="s">
         <v>36</v>
@@ -5279,14 +6151,17 @@
       <c r="G41" t="s">
         <v>37</v>
       </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
       <c r="J41">
-        <v>1.8273167316075101</v>
+        <v>13.80561568304279</v>
       </c>
       <c r="K41">
-        <v>4.797750864600431</v>
+        <v>-8.4441827437069037</v>
       </c>
       <c r="L41">
-        <v>-7.7174113002536501E-2</v>
+        <v>0.53274543397075158</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5294,16 +6169,16 @@
         <v>181</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="C42" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="D42">
-        <v>-2.5</v>
+        <v>-16.5</v>
       </c>
       <c r="E42">
-        <v>0.49270086471256452</v>
+        <v>0.48986302682520538</v>
       </c>
       <c r="F42" t="s">
         <v>36</v>
@@ -5311,14 +6186,17 @@
       <c r="G42" t="s">
         <v>37</v>
       </c>
+      <c r="H42" t="s">
+        <v>21</v>
+      </c>
       <c r="J42">
-        <v>-2.642261937447032</v>
+        <v>7.4130879073406817</v>
       </c>
       <c r="K42">
-        <v>2.736212044786853</v>
+        <v>-10.205358009521049</v>
       </c>
       <c r="L42">
-        <v>-0.14567964462718949</v>
+        <v>0.3773169740285548</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5326,16 +6204,16 @@
         <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C43" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="D43">
-        <v>1.5</v>
+        <v>-7.5</v>
       </c>
       <c r="E43">
-        <v>0.49365883716864978</v>
+        <v>0.50811050994183471</v>
       </c>
       <c r="F43" t="s">
         <v>36</v>
@@ -5343,14 +6221,17 @@
       <c r="G43" t="s">
         <v>37</v>
       </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
       <c r="J43">
-        <v>-0.52377924415108623</v>
+        <v>0.97063627800470442</v>
       </c>
       <c r="K43">
-        <v>2.8575358425396762</v>
+        <v>-0.32792161597215852</v>
       </c>
       <c r="L43">
-        <v>-4.6702662364815399E-2</v>
+        <v>2.66096322986932E-2</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5358,16 +6239,16 @@
         <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="C44" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D44">
-        <v>2.5</v>
+        <v>-10.5</v>
       </c>
       <c r="E44">
-        <v>0.50463666103886562</v>
+        <v>0.49683455436834523</v>
       </c>
       <c r="F44" t="s">
         <v>36</v>
@@ -5375,14 +6256,5198 @@
       <c r="G44" t="s">
         <v>37</v>
       </c>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
       <c r="J44">
-        <v>6.2803439036684674</v>
+        <v>-1.3075833160467449</v>
       </c>
       <c r="K44">
-        <v>2.3032402144002759</v>
+        <v>-3.7198527554254501</v>
       </c>
       <c r="L44">
-        <v>0.1016273145190162</v>
+        <v>6.6247242391556202E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.47265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2">
+        <v>-21.5</v>
+      </c>
+      <c r="E2">
+        <v>0.30309162571633902</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>10.001928862920391</v>
+      </c>
+      <c r="K2">
+        <v>-6.9914833103374434</v>
+      </c>
+      <c r="L2">
+        <v>0.40550926368501872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D3">
+        <v>-13.5</v>
+      </c>
+      <c r="E3">
+        <v>0.31061212370808539</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>8.2607298129421878</v>
+      </c>
+      <c r="K3">
+        <v>-2.4674830919217499</v>
+      </c>
+      <c r="L3">
+        <v>0.21490085323365771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4">
+        <v>-24.5</v>
+      </c>
+      <c r="E4">
+        <v>0.32495485485334269</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>8.8842245517121796</v>
+      </c>
+      <c r="K4">
+        <v>-13.80440305184106</v>
+      </c>
+      <c r="L4">
+        <v>0.47770458426878881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D5">
+        <v>-14.5</v>
+      </c>
+      <c r="E5">
+        <v>0.33621068477298671</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>5.5938708664378396</v>
+      </c>
+      <c r="K5">
+        <v>-5.3333872708374059</v>
+      </c>
+      <c r="L5">
+        <v>0.25738510313517732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6">
+        <v>-1.5</v>
+      </c>
+      <c r="E6">
+        <v>0.65390421654153763</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>-1.273804864831789</v>
+      </c>
+      <c r="K6">
+        <v>-0.73960339547973319</v>
+      </c>
+      <c r="L6">
+        <v>-1.3130538950242901E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7">
+        <v>-1.5</v>
+      </c>
+      <c r="E7">
+        <v>0.64321600734616735</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>0.78873474043851388</v>
+      </c>
+      <c r="K7">
+        <v>2.4288958548636539</v>
+      </c>
+      <c r="L7">
+        <v>-3.15329718138736E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>5.5</v>
+      </c>
+      <c r="E8">
+        <v>0.63921576821343429</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>-8.2129765928945631</v>
+      </c>
+      <c r="K8">
+        <v>-1.580492786322566</v>
+      </c>
+      <c r="L8">
+        <v>-0.16539745464783609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9">
+        <v>-14.5</v>
+      </c>
+      <c r="E9">
+        <v>0.37515569851697123</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>301</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>3.702358778185697</v>
+      </c>
+      <c r="K9">
+        <v>-6.0158551833440583</v>
+      </c>
+      <c r="L9">
+        <v>0.25683950572582059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>-14.5</v>
+      </c>
+      <c r="E10">
+        <v>0.39269838760161141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>0.6171583843193531</v>
+      </c>
+      <c r="K10">
+        <v>-9.7113660537596616</v>
+      </c>
+      <c r="L10">
+        <v>0.22939973229832289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11">
+        <v>-7.5</v>
+      </c>
+      <c r="E11">
+        <v>0.59745780021897177</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>-1.11965115568688</v>
+      </c>
+      <c r="K11">
+        <v>-1.4234653063378031</v>
+      </c>
+      <c r="L11">
+        <v>8.8486493744228002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12">
+        <v>-4.5</v>
+      </c>
+      <c r="E12">
+        <v>0.59514462384707689</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>0.28161378888690081</v>
+      </c>
+      <c r="K12">
+        <v>-0.32334449866691273</v>
+      </c>
+      <c r="L12">
+        <v>1.5697316576492901E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13">
+        <v>-6.5</v>
+      </c>
+      <c r="E13">
+        <v>0.56857773066268469</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>1.71210132567164</v>
+      </c>
+      <c r="K13">
+        <v>-6.5574852270750199</v>
+      </c>
+      <c r="L13">
+        <v>0.1940671278196629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14">
+        <v>-6.5</v>
+      </c>
+      <c r="E14">
+        <v>0.55927954176854133</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>-0.82119382945693076</v>
+      </c>
+      <c r="K14">
+        <v>-3.7693482205952189</v>
+      </c>
+      <c r="L14">
+        <v>5.91047921143548E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15">
+        <v>-2.5</v>
+      </c>
+      <c r="E15">
+        <v>0.55183906355465706</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>-3.8549885747025461</v>
+      </c>
+      <c r="K15">
+        <v>-1.0414763269466361</v>
+      </c>
+      <c r="L15">
+        <v>-1.7631399613707799E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16">
+        <v>-7.5</v>
+      </c>
+      <c r="E16">
+        <v>0.54736998252774738</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>-0.1246613512271324</v>
+      </c>
+      <c r="K16">
+        <v>-0.38595046912237763</v>
+      </c>
+      <c r="L16">
+        <v>3.7581981795244E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17">
+        <v>-9.5</v>
+      </c>
+      <c r="E17">
+        <v>0.51890166779029845</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>7.7231370302017837</v>
+      </c>
+      <c r="K17">
+        <v>-3.8934648893341262</v>
+      </c>
+      <c r="L17">
+        <v>0.21663912134465421</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.9453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2">
+        <v>14.5</v>
+      </c>
+      <c r="E2">
+        <v>0.97895080040298588</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>-8.1659218469416857</v>
+      </c>
+      <c r="K2">
+        <v>5.1308314458122766</v>
+      </c>
+      <c r="L2">
+        <v>-0.17239803288154859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>4.5</v>
+      </c>
+      <c r="E3">
+        <v>0.94961524712473899</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>-1.9814906946902651</v>
+      </c>
+      <c r="K3">
+        <v>3.4316568267230418</v>
+      </c>
+      <c r="L3">
+        <v>-0.1077122056032313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4">
+        <v>0.94773790383588397</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>-5.9407091969561208</v>
+      </c>
+      <c r="K4">
+        <v>-1.3152221462546689</v>
+      </c>
+      <c r="L4">
+        <v>-0.1093152019492593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+      <c r="E5">
+        <v>0.94225237742369328</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>-4.8877914538976768</v>
+      </c>
+      <c r="K5">
+        <v>4.7310894855271998E-2</v>
+      </c>
+      <c r="L5">
+        <v>-9.6364339316759501E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6">
+        <v>8.5</v>
+      </c>
+      <c r="E6">
+        <v>0.93664606373139025</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>325</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>-9.6098466878831488</v>
+      </c>
+      <c r="K6">
+        <v>5.6669161295518364</v>
+      </c>
+      <c r="L6">
+        <v>-0.18149027591101699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>8.5</v>
+      </c>
+      <c r="E7">
+        <v>0.92282563795322614</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>-11.10907304062677</v>
+      </c>
+      <c r="K7">
+        <v>4.8033308220346393</v>
+      </c>
+      <c r="L7">
+        <v>-0.3561272137613381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>0.90736777545207803</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>330</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>-0.365637960208474</v>
+      </c>
+      <c r="K8">
+        <v>1.78169164002108</v>
+      </c>
+      <c r="L8">
+        <v>-1.8606571661652301E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9">
+        <v>-6.5</v>
+      </c>
+      <c r="E9">
+        <v>0.89927569618685499</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>331</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>2.0475287619564</v>
+      </c>
+      <c r="K9">
+        <v>-0.94967202862072497</v>
+      </c>
+      <c r="L9">
+        <v>7.7350714212941901E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10">
+        <v>3.5</v>
+      </c>
+      <c r="E10">
+        <v>0.89405461280760223</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>-1.7241192301811741</v>
+      </c>
+      <c r="K10">
+        <v>2.5066637264726239</v>
+      </c>
+      <c r="L10">
+        <v>-0.1051855457911635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11">
+        <v>-4.5</v>
+      </c>
+      <c r="E11">
+        <v>0.88899853920948291</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>335</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>-4.7228854866929453</v>
+      </c>
+      <c r="K11">
+        <v>-8.1616054727169995</v>
+      </c>
+      <c r="L11">
+        <v>7.5326896570039895E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D12">
+        <v>-3.5</v>
+      </c>
+      <c r="E12">
+        <v>0.8790174449297512</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>336</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>0.59918137581918529</v>
+      </c>
+      <c r="K12">
+        <v>0.32034069646400098</v>
+      </c>
+      <c r="L12">
+        <v>6.9184448101045001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13">
+        <v>-1.5</v>
+      </c>
+      <c r="E13">
+        <v>0.87710611999114096</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>337</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>-2.4782308275505329</v>
+      </c>
+      <c r="K13">
+        <v>-1.888469420749473</v>
+      </c>
+      <c r="L13">
+        <v>-1.77565847586732E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14">
+        <v>-10.5</v>
+      </c>
+      <c r="E14">
+        <v>0.84631368605792878</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>338</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>3.9645122622925442</v>
+      </c>
+      <c r="K14">
+        <v>-3.080160252355256</v>
+      </c>
+      <c r="L14">
+        <v>0.123381257575186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>-10.5</v>
+      </c>
+      <c r="E15">
+        <v>0.79978055574179707</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>6.0605141522696764</v>
+      </c>
+      <c r="K15">
+        <v>-2.4429017143940399</v>
+      </c>
+      <c r="L15">
+        <v>0.13181012251202501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>-15.5</v>
+      </c>
+      <c r="E16">
+        <v>0.76540010275381531</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>340</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16">
+        <v>0.4976250058795415</v>
+      </c>
+      <c r="K16">
+        <v>-9.527085392165958</v>
+      </c>
+      <c r="L16">
+        <v>0.26020421937231508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>316</v>
+      </c>
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17">
+        <v>-15.5</v>
+      </c>
+      <c r="E17">
+        <v>0.76193868284059341</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>342</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>2.021894234782863</v>
+      </c>
+      <c r="K17">
+        <v>-8.3575671060863215</v>
+      </c>
+      <c r="L17">
+        <v>0.27701169645346418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>-11.5</v>
+      </c>
+      <c r="E18">
+        <v>0.75559420078224893</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>343</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>5.847590721688178</v>
+      </c>
+      <c r="K18">
+        <v>-6.1257179042826806</v>
+      </c>
+      <c r="L18">
+        <v>0.30381022448867268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19">
+        <v>-5.5</v>
+      </c>
+      <c r="E19">
+        <v>0.75346077774829545</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>0.52658957098664416</v>
+      </c>
+      <c r="K19">
+        <v>-1.674190265749957</v>
+      </c>
+      <c r="L19">
+        <v>5.7584971206728799E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20">
+        <v>-14.5</v>
+      </c>
+      <c r="E20">
+        <v>0.72828373456287032</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>5.9737437892473366</v>
+      </c>
+      <c r="K20">
+        <v>-2.413516621284856</v>
+      </c>
+      <c r="L20">
+        <v>0.14982468516445269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>-15.5</v>
+      </c>
+      <c r="E21">
+        <v>0.72219269778474771</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>347</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>5.2688303063001598</v>
+      </c>
+      <c r="K21">
+        <v>-8.3737905777371964</v>
+      </c>
+      <c r="L21">
+        <v>0.23365406220154711</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22">
+        <v>-11.5</v>
+      </c>
+      <c r="E22">
+        <v>0.71209131907116063</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" t="s">
+        <v>349</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22">
+        <v>5.9528151532363296</v>
+      </c>
+      <c r="K22">
+        <v>-4.6678884982970601</v>
+      </c>
+      <c r="L22">
+        <v>0.27596370934689068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D23">
+        <v>-15.5</v>
+      </c>
+      <c r="E23">
+        <v>0.68938513487094122</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>351</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>9.9395621444376303</v>
+      </c>
+      <c r="K23">
+        <v>3.1733026812020101E-2</v>
+      </c>
+      <c r="L23">
+        <v>0.15251731633408111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24">
+        <v>-15.5</v>
+      </c>
+      <c r="E24">
+        <v>0.67549155846171072</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>10.264895472302779</v>
+      </c>
+      <c r="K24">
+        <v>-0.97541518687783924</v>
+      </c>
+      <c r="L24">
+        <v>0.18986686200402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25">
+        <v>-38.5</v>
+      </c>
+      <c r="E25">
+        <v>0.32983479045365971</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>355</v>
+      </c>
+      <c r="H25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>15.81506894849967</v>
+      </c>
+      <c r="K25">
+        <v>-17.342748864275659</v>
+      </c>
+      <c r="L25">
+        <v>0.60247510668672954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>-17.5</v>
+      </c>
+      <c r="E26">
+        <v>0.62457743674862787</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>356</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <v>8.2313553797895764</v>
+      </c>
+      <c r="K26">
+        <v>-8.9414441971590719</v>
+      </c>
+      <c r="L26">
+        <v>0.43745549637765269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>357</v>
+      </c>
+      <c r="D27">
+        <v>-14.5</v>
+      </c>
+      <c r="E27">
+        <v>0.60286387193307001</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>358</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>6.426252253293228</v>
+      </c>
+      <c r="K27">
+        <v>-6.2099414986752208</v>
+      </c>
+      <c r="L27">
+        <v>0.30304138412906301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28">
+        <v>-25.5</v>
+      </c>
+      <c r="E28">
+        <v>0.58061459865942966</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>11.854108595015701</v>
+      </c>
+      <c r="K28">
+        <v>-14.20618020447505</v>
+      </c>
+      <c r="L28">
+        <v>0.522695787936718</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>316</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29">
+        <v>-23.5</v>
+      </c>
+      <c r="E29">
+        <v>0.57226056333784658</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>13.837133840476641</v>
+      </c>
+      <c r="K29">
+        <v>-9.8851471059141165</v>
+      </c>
+      <c r="L29">
+        <v>0.53466092106467378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>316</v>
+      </c>
+      <c r="B30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30">
+        <v>-28.5</v>
+      </c>
+      <c r="E30">
+        <v>0.56063537506400452</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>13.2843943057545</v>
+      </c>
+      <c r="K30">
+        <v>-8.2975074949131766</v>
+      </c>
+      <c r="L30">
+        <v>0.25963821011745242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31">
+        <v>-27.5</v>
+      </c>
+      <c r="E31">
+        <v>0.52502437950836456</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>11.77256681048283</v>
+      </c>
+      <c r="K31">
+        <v>-10.71559310935787</v>
+      </c>
+      <c r="L31">
+        <v>0.46721316146460262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32">
+        <v>-29.5</v>
+      </c>
+      <c r="E32">
+        <v>0.48918563628991552</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>16.825974681668981</v>
+      </c>
+      <c r="K32">
+        <v>-15.56233603599671</v>
+      </c>
+      <c r="L32">
+        <v>0.59093669271128113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2">
+        <v>11.5</v>
+      </c>
+      <c r="E2">
+        <v>0.97300608753441864</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>363</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>-12.65399618695659</v>
+      </c>
+      <c r="K2">
+        <v>5.5387560519499601</v>
+      </c>
+      <c r="L2">
+        <v>-0.44506606346528399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3">
+        <v>8.5</v>
+      </c>
+      <c r="E3">
+        <v>0.93345012958115747</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>-9.8032631850208514</v>
+      </c>
+      <c r="K3">
+        <v>8.1110954469707224</v>
+      </c>
+      <c r="L3">
+        <v>-0.42631771209487612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>3.5</v>
+      </c>
+      <c r="E4">
+        <v>0.91629105821545176</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>1.4268896013843599</v>
+      </c>
+      <c r="K4">
+        <v>6.0715354483996444</v>
+      </c>
+      <c r="L4">
+        <v>-0.1194759604815219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5">
+        <v>3.5</v>
+      </c>
+      <c r="E5">
+        <v>0.91154064063877982</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>-2.42892008591744</v>
+      </c>
+      <c r="K5">
+        <v>4.510196343418329</v>
+      </c>
+      <c r="L5">
+        <v>-0.18679161574017811</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>-7.5</v>
+      </c>
+      <c r="E6">
+        <v>0.90755791283548026</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>3.3886428445914589</v>
+      </c>
+      <c r="K6">
+        <v>-0.11566885516789679</v>
+      </c>
+      <c r="L6">
+        <v>6.1283052258017702E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>-2.5</v>
+      </c>
+      <c r="E7">
+        <v>0.90056378659536607</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>371</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <v>1.484244841431305</v>
+      </c>
+      <c r="K7">
+        <v>-1.6336312802507389</v>
+      </c>
+      <c r="L7">
+        <v>7.9332442083183297E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>5.5</v>
+      </c>
+      <c r="E8">
+        <v>0.89996316251355513</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>-7.2246829311591227</v>
+      </c>
+      <c r="K8">
+        <v>6.9139458825080737</v>
+      </c>
+      <c r="L8">
+        <v>-0.28160896386497147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9">
+        <v>0.89153046215549347</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <v>-8.6189984468177203E-2</v>
+      </c>
+      <c r="K9">
+        <v>4.224425755850362</v>
+      </c>
+      <c r="L9">
+        <v>-7.62470159013309E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10">
+        <v>-1.5</v>
+      </c>
+      <c r="E10">
+        <v>0.89115864958450752</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>374</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>0.54628521107410677</v>
+      </c>
+      <c r="K10">
+        <v>-4.3760586364213054</v>
+      </c>
+      <c r="L10">
+        <v>6.3091083878156706E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>-4.5</v>
+      </c>
+      <c r="E11">
+        <v>0.89033831117568951</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>375</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>2.3067697445737418</v>
+      </c>
+      <c r="K11">
+        <v>-0.1079364698207143</v>
+      </c>
+      <c r="L11">
+        <v>6.5617944445334503E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12">
+        <v>-3.5</v>
+      </c>
+      <c r="E12">
+        <v>0.88847264690330829</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>377</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12">
+        <v>-1.0924002300146041</v>
+      </c>
+      <c r="K12">
+        <v>1.4651536407483401</v>
+      </c>
+      <c r="L12">
+        <v>-6.7510644733118394E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13">
+        <v>2.5</v>
+      </c>
+      <c r="E13">
+        <v>0.88846404560728853</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>379</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>2.664614123501877</v>
+      </c>
+      <c r="K13">
+        <v>9.7920868547355582</v>
+      </c>
+      <c r="L13">
+        <v>-0.13658777440997111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>-1.5</v>
+      </c>
+      <c r="E14">
+        <v>0.88810391895007101</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>-3.3313564884421401</v>
+      </c>
+      <c r="K14">
+        <v>0.14351761140892449</v>
+      </c>
+      <c r="L14">
+        <v>-4.93042896907478E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15">
+        <v>-1.5</v>
+      </c>
+      <c r="E15">
+        <v>0.87501989948329384</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>382</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>2.3439543293700491</v>
+      </c>
+      <c r="K15">
+        <v>0.18964502408037731</v>
+      </c>
+      <c r="L15">
+        <v>5.8472188828977902E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16">
+        <v>-1.5</v>
+      </c>
+      <c r="E16">
+        <v>0.866722693167151</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>201</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>-1.261403663823955</v>
+      </c>
+      <c r="K16">
+        <v>1.924350383175337</v>
+      </c>
+      <c r="L16">
+        <v>-7.5350589068636106E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>383</v>
+      </c>
+      <c r="D17">
+        <v>-7.5</v>
+      </c>
+      <c r="E17">
+        <v>0.86493517990856661</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>2.0970679418124969</v>
+      </c>
+      <c r="K17">
+        <v>0.7060492799179201</v>
+      </c>
+      <c r="L17">
+        <v>2.5570333103679899E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>360</v>
+      </c>
+      <c r="B18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18">
+        <v>-8.5</v>
+      </c>
+      <c r="E18">
+        <v>0.85985153026953665</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>387</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18">
+        <v>-2.1147543291039028</v>
+      </c>
+      <c r="K18">
+        <v>-4.9634262209619067</v>
+      </c>
+      <c r="L18">
+        <v>7.2427529681084596E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19">
+        <v>-1.5</v>
+      </c>
+      <c r="E19">
+        <v>0.8595884817843743</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>388</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>0.41596338160081808</v>
+      </c>
+      <c r="K19">
+        <v>2.5209698331915011</v>
+      </c>
+      <c r="L19">
+        <v>-4.5157424951262397E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>360</v>
+      </c>
+      <c r="B20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20">
+        <v>-6.5</v>
+      </c>
+      <c r="E20">
+        <v>0.85702483875258417</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>389</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>-0.62893184280784453</v>
+      </c>
+      <c r="K20">
+        <v>-0.23241759208937651</v>
+      </c>
+      <c r="L20">
+        <v>-1.04787471625368E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21">
+        <v>-4.5</v>
+      </c>
+      <c r="E21">
+        <v>0.85163068990930935</v>
+      </c>
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>390</v>
+      </c>
+      <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <v>-2.1138737881412908</v>
+      </c>
+      <c r="K21">
+        <v>-0.81789512790852825</v>
+      </c>
+      <c r="L21">
+        <v>-3.3071268586357103E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" t="s">
+        <v>391</v>
+      </c>
+      <c r="C22" t="s">
+        <v>392</v>
+      </c>
+      <c r="D22">
+        <v>-1.5</v>
+      </c>
+      <c r="E22">
+        <v>0.84908026199240449</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" t="s">
+        <v>393</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>-1.25918077641424</v>
+      </c>
+      <c r="K22">
+        <v>-0.99747053813906916</v>
+      </c>
+      <c r="L22">
+        <v>-1.2155639479014E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23">
+        <v>-7.5</v>
+      </c>
+      <c r="E23">
+        <v>0.84054643581208699</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>394</v>
+      </c>
+      <c r="H23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>0.1832061603728192</v>
+      </c>
+      <c r="K23">
+        <v>-1.5524175203013471</v>
+      </c>
+      <c r="L23">
+        <v>2.4719020324529301E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B24" t="s">
+        <v>395</v>
+      </c>
+      <c r="C24" t="s">
+        <v>396</v>
+      </c>
+      <c r="D24">
+        <v>-1.5</v>
+      </c>
+      <c r="E24">
+        <v>0.8378099682656831</v>
+      </c>
+      <c r="F24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s">
+        <v>397</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24">
+        <v>-1.096878912318203</v>
+      </c>
+      <c r="K24">
+        <v>-0.61616778598043709</v>
+      </c>
+      <c r="L24">
+        <v>-1.3101275341125301E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D25">
+        <v>-2.5</v>
+      </c>
+      <c r="E25">
+        <v>0.83292270807730817</v>
+      </c>
+      <c r="F25" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s">
+        <v>399</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <v>2.7652531282260782</v>
+      </c>
+      <c r="K25">
+        <v>4.2308730628895006</v>
+      </c>
+      <c r="L25">
+        <v>-4.0657667453438399E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26">
+        <v>-5.5</v>
+      </c>
+      <c r="E26">
+        <v>0.83227518645622889</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" t="s">
+        <v>401</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <v>-0.3864876736138711</v>
+      </c>
+      <c r="K26">
+        <v>-1.065799360061646</v>
+      </c>
+      <c r="L26">
+        <v>6.0863687047166999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>360</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27">
+        <v>-2.5</v>
+      </c>
+      <c r="E27">
+        <v>0.8256486373635965</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" t="s">
+        <v>402</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <v>-0.45733721073315792</v>
+      </c>
+      <c r="K27">
+        <v>-0.85349541625058123</v>
+      </c>
+      <c r="L27">
+        <v>9.8085516640493992E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28">
+        <v>-8.5</v>
+      </c>
+      <c r="E28">
+        <v>0.82493497597369281</v>
+      </c>
+      <c r="F28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>403</v>
+      </c>
+      <c r="H28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>5.2578002393076559</v>
+      </c>
+      <c r="K28">
+        <v>-2.8573259555090398</v>
+      </c>
+      <c r="L28">
+        <v>0.18105777714403529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" t="s">
+        <v>404</v>
+      </c>
+      <c r="D29">
+        <v>-9.5</v>
+      </c>
+      <c r="E29">
+        <v>0.82277194279427113</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" t="s">
+        <v>405</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
+        <v>2.8568136122807042</v>
+      </c>
+      <c r="K29">
+        <v>-2.5192328805305948</v>
+      </c>
+      <c r="L29">
+        <v>0.14529671792096371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>-9.5</v>
+      </c>
+      <c r="E30">
+        <v>0.81865936720744881</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" t="s">
+        <v>406</v>
+      </c>
+      <c r="H30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30">
+        <v>2.390052160417909</v>
+      </c>
+      <c r="K30">
+        <v>-3.4896216674713538</v>
+      </c>
+      <c r="L30">
+        <v>0.1470252438513702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>360</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31">
+        <v>-6.5</v>
+      </c>
+      <c r="E31">
+        <v>0.81545413111223497</v>
+      </c>
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" t="s">
+        <v>407</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31">
+        <v>6.116794862390762</v>
+      </c>
+      <c r="K31">
+        <v>-1.272722892444762</v>
+      </c>
+      <c r="L31">
+        <v>0.193960909508747</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>360</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32">
+        <v>-2.5</v>
+      </c>
+      <c r="E32">
+        <v>0.81344169822899082</v>
+      </c>
+      <c r="F32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" t="s">
+        <v>408</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32">
+        <v>-3.8728315804490312</v>
+      </c>
+      <c r="K32">
+        <v>1.0593862347488849</v>
+      </c>
+      <c r="L32">
+        <v>-0.1132161231223358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D33">
+        <v>-9.5</v>
+      </c>
+      <c r="E33">
+        <v>0.80905287967310091</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s">
+        <v>410</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33">
+        <v>4.1224950523908461</v>
+      </c>
+      <c r="K33">
+        <v>-11.765922135926161</v>
+      </c>
+      <c r="L33">
+        <v>0.40636800260341271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>360</v>
+      </c>
+      <c r="B34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+      <c r="D34">
+        <v>-7.5</v>
+      </c>
+      <c r="E34">
+        <v>0.80711585387996576</v>
+      </c>
+      <c r="F34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s">
+        <v>411</v>
+      </c>
+      <c r="H34" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34">
+        <v>-4.9485224988484617</v>
+      </c>
+      <c r="K34">
+        <v>-8.4454768422359479</v>
+      </c>
+      <c r="L34">
+        <v>9.3188217560022102E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>360</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35">
+        <v>-7.5</v>
+      </c>
+      <c r="E35">
+        <v>0.79499265080399339</v>
+      </c>
+      <c r="F35" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" t="s">
+        <v>412</v>
+      </c>
+      <c r="H35" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>3.8149172309076098</v>
+      </c>
+      <c r="K35">
+        <v>-6.3171797842848321</v>
+      </c>
+      <c r="L35">
+        <v>0.26744939639421139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>360</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36">
+        <v>-6.5</v>
+      </c>
+      <c r="E36">
+        <v>0.76759950990367409</v>
+      </c>
+      <c r="F36" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" t="s">
+        <v>413</v>
+      </c>
+      <c r="H36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36">
+        <v>1.1679640101870059</v>
+      </c>
+      <c r="K36">
+        <v>0.87092551337018165</v>
+      </c>
+      <c r="L36">
+        <v>2.5428220949100999E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>360</v>
+      </c>
+      <c r="B37" t="s">
+        <v>272</v>
+      </c>
+      <c r="C37" t="s">
+        <v>414</v>
+      </c>
+      <c r="D37">
+        <v>-10.5</v>
+      </c>
+      <c r="E37">
+        <v>0.76433352245710495</v>
+      </c>
+      <c r="F37" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" t="s">
+        <v>415</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>8.0902143837847689</v>
+      </c>
+      <c r="K37">
+        <v>0.7580505361045482</v>
+      </c>
+      <c r="L37">
+        <v>0.14574460075251719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>360</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>279</v>
+      </c>
+      <c r="D38">
+        <v>-6.5</v>
+      </c>
+      <c r="E38">
+        <v>0.75627436352222099</v>
+      </c>
+      <c r="F38" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" t="s">
+        <v>416</v>
+      </c>
+      <c r="H38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38">
+        <v>5.7015952685531062</v>
+      </c>
+      <c r="K38">
+        <v>-0.36578600645978548</v>
+      </c>
+      <c r="L38">
+        <v>0.13845153564293719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>360</v>
+      </c>
+      <c r="B39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39">
+        <v>-4.5</v>
+      </c>
+      <c r="E39">
+        <v>0.74945280557759264</v>
+      </c>
+      <c r="F39" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" t="s">
+        <v>417</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39">
+        <v>7.2465360171824926</v>
+      </c>
+      <c r="K39">
+        <v>4.091805591511843</v>
+      </c>
+      <c r="L39">
+        <v>8.3713730963822897E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" t="s">
+        <v>418</v>
+      </c>
+      <c r="C40" t="s">
+        <v>419</v>
+      </c>
+      <c r="D40">
+        <v>-13.5</v>
+      </c>
+      <c r="E40">
+        <v>0.74246546491879517</v>
+      </c>
+      <c r="F40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" t="s">
+        <v>420</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>8.7587306479689033</v>
+      </c>
+      <c r="K40">
+        <v>-6.5645678233568958</v>
+      </c>
+      <c r="L40">
+        <v>0.3660663412036394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>360</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41">
+        <v>-13.5</v>
+      </c>
+      <c r="E41">
+        <v>0.73683179793404363</v>
+      </c>
+      <c r="F41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>7.2538805486021261</v>
+      </c>
+      <c r="K41">
+        <v>-3.954425006560442</v>
+      </c>
+      <c r="L41">
+        <v>0.25321512345759439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>360</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42">
+        <v>-10.5</v>
+      </c>
+      <c r="E42">
+        <v>0.72502175973589422</v>
+      </c>
+      <c r="F42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" t="s">
+        <v>421</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>5.7496492604032738</v>
+      </c>
+      <c r="K42">
+        <v>-3.6314957509707142</v>
+      </c>
+      <c r="L42">
+        <v>0.18156898852607359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>360</v>
+      </c>
+      <c r="B43" t="s">
+        <v>422</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43">
+        <v>-15.5</v>
+      </c>
+      <c r="E43">
+        <v>0.7141121449461767</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" t="s">
+        <v>423</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43">
+        <v>11.50532764963982</v>
+      </c>
+      <c r="K43">
+        <v>-9.0264524117792035</v>
+      </c>
+      <c r="L43">
+        <v>0.47290095606142102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>-17.5</v>
+      </c>
+      <c r="E44">
+        <v>0.70838542477518762</v>
+      </c>
+      <c r="F44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s">
+        <v>424</v>
+      </c>
+      <c r="H44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44">
+        <v>8.6250101696440993</v>
+      </c>
+      <c r="K44">
+        <v>-9.3225306254087155</v>
+      </c>
+      <c r="L44">
+        <v>0.33552150221611288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>360</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45">
+        <v>-15.5</v>
+      </c>
+      <c r="E45">
+        <v>0.68320621530119152</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>425</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45">
+        <v>10.44756645624776</v>
+      </c>
+      <c r="K45">
+        <v>-0.97542443473207641</v>
+      </c>
+      <c r="L45">
+        <v>0.30304789473688881</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B46" t="s">
+        <v>226</v>
+      </c>
+      <c r="C46" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46">
+        <v>-27.5</v>
+      </c>
+      <c r="E46">
+        <v>0.34706652730438309</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" t="s">
+        <v>291</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>10.81290695058291</v>
+      </c>
+      <c r="K46">
+        <v>-12.784873650029651</v>
+      </c>
+      <c r="L46">
+        <v>0.55906211590518362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>360</v>
+      </c>
+      <c r="B47" t="s">
+        <v>273</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47">
+        <v>-14.5</v>
+      </c>
+      <c r="E47">
+        <v>0.64699306099055631</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s">
+        <v>426</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47">
+        <v>9.6355849671782483</v>
+      </c>
+      <c r="K47">
+        <v>-7.8879026396112693</v>
+      </c>
+      <c r="L47">
+        <v>0.41106984060066659</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48">
+        <v>-21.5</v>
+      </c>
+      <c r="E48">
+        <v>0.63871548435470471</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" t="s">
+        <v>427</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48">
+        <v>13.71133576208568</v>
+      </c>
+      <c r="K48">
+        <v>-6.0794281721226611</v>
+      </c>
+      <c r="L48">
+        <v>0.39889246850345689</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" t="s">
+        <v>428</v>
+      </c>
+      <c r="D49">
+        <v>-17.5</v>
+      </c>
+      <c r="E49">
+        <v>0.63664309068985492</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>429</v>
+      </c>
+      <c r="H49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49">
+        <v>12.64333304813</v>
+      </c>
+      <c r="K49">
+        <v>-2.6974907141066491</v>
+      </c>
+      <c r="L49">
+        <v>0.36986773255713601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>360</v>
+      </c>
+      <c r="B50" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50">
+        <v>-28.5</v>
+      </c>
+      <c r="E50">
+        <v>0.63447174149367913</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
+        <v>431</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50">
+        <v>12.83539248454767</v>
+      </c>
+      <c r="K50">
+        <v>-13.14246608165818</v>
+      </c>
+      <c r="L50">
+        <v>0.49063798871651598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>360</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51">
+        <v>-23.5</v>
+      </c>
+      <c r="E51">
+        <v>0.62482066163452865</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" t="s">
+        <v>432</v>
+      </c>
+      <c r="H51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51">
+        <v>12.56424328658154</v>
+      </c>
+      <c r="K51">
+        <v>-13.051560408904381</v>
+      </c>
+      <c r="L51">
+        <v>0.52046718286102966</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="s">
+        <v>433</v>
+      </c>
+      <c r="D52">
+        <v>-21.5</v>
+      </c>
+      <c r="E52">
+        <v>0.57576435644478685</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52">
+        <v>9.1964523674763399</v>
+      </c>
+      <c r="K52">
+        <v>-10.6270137991533</v>
+      </c>
+      <c r="L52">
+        <v>0.48529393757425182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53" t="s">
+        <v>434</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53">
+        <v>-14.5</v>
+      </c>
+      <c r="E53">
+        <v>0.57066872824875814</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53">
+        <v>16.265668559783141</v>
+      </c>
+      <c r="K53">
+        <v>-5.3203759168911802</v>
+      </c>
+      <c r="L53">
+        <v>0.51335382882787339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>360</v>
+      </c>
+      <c r="B54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54">
+        <v>-31.5</v>
+      </c>
+      <c r="E54">
+        <v>0.43891671641110552</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54">
+        <v>14.630653079696341</v>
+      </c>
+      <c r="K54">
+        <v>-10.599513994608021</v>
+      </c>
+      <c r="L54">
+        <v>0.42837856006499531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3">
+        <v>45976</v>
+      </c>
+      <c r="B55" t="s">
+        <v>435</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55">
+        <v>-22.5</v>
+      </c>
+      <c r="E55">
+        <v>0.4979527637935145</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55">
+        <v>9.8839638846894804</v>
+      </c>
+      <c r="K55">
+        <v>-12.646369038983989</v>
+      </c>
+      <c r="L55">
+        <v>0.51720482384842148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.47265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.3671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>9.5</v>
+      </c>
+      <c r="E2">
+        <v>0.95526778573898086</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2">
+        <v>-14.203518457025069</v>
+      </c>
+      <c r="K2">
+        <v>3.9876777291563599</v>
+      </c>
+      <c r="L2">
+        <v>-0.44321517917566539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3">
+        <v>7.5</v>
+      </c>
+      <c r="E3">
+        <v>0.95231797565337384</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>-6.5878809026841196</v>
+      </c>
+      <c r="K3">
+        <v>2.7638407151341369</v>
+      </c>
+      <c r="L3">
+        <v>-0.2047232834555667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4">
+        <v>8.5</v>
+      </c>
+      <c r="E4">
+        <v>0.93964273966698153</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>440</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>-4.9949463100463021</v>
+      </c>
+      <c r="K4">
+        <v>1.6348205265447999</v>
+      </c>
+      <c r="L4">
+        <v>-0.1693437771307548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5">
+        <v>5.5</v>
+      </c>
+      <c r="E5">
+        <v>0.93351389130972939</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5">
+        <v>-1.538894933820032</v>
+      </c>
+      <c r="K5">
+        <v>7.4433665392839998</v>
+      </c>
+      <c r="L5">
+        <v>-0.18954139499412551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6">
+        <v>8.5</v>
+      </c>
+      <c r="E6">
+        <v>0.93237055599568508</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>-5.1169470917045601E-2</v>
+      </c>
+      <c r="K6">
+        <v>8.8760381692617187</v>
+      </c>
+      <c r="L6">
+        <v>-7.5190363144955794E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>436</v>
+      </c>
+      <c r="B7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7">
+        <v>4.5</v>
+      </c>
+      <c r="E7">
+        <v>0.92182642721400465</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>-4.5935972721825209</v>
+      </c>
+      <c r="K7">
+        <v>3.7203412261649329</v>
+      </c>
+      <c r="L7">
+        <v>-0.19751760903356491</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8">
+        <v>3.5</v>
+      </c>
+      <c r="E8">
+        <v>0.91640205983488976</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>444</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>-5.7477722176995201</v>
+      </c>
+      <c r="K8">
+        <v>-0.268012055482302</v>
+      </c>
+      <c r="L8">
+        <v>-0.1308862879371307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9">
+        <v>10.5</v>
+      </c>
+      <c r="E9">
+        <v>0.91534479547773251</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
+        <v>-1.919107690791819</v>
+      </c>
+      <c r="K9">
+        <v>6.7101460568278384</v>
+      </c>
+      <c r="L9">
+        <v>-9.8369733122059294E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>-2.5</v>
+      </c>
+      <c r="E10">
+        <v>0.9005908465771556</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10">
+        <v>0.60987945190176163</v>
+      </c>
+      <c r="K10">
+        <v>1.5765342465035981</v>
+      </c>
+      <c r="L10">
+        <v>-1.84287035835142E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>436</v>
+      </c>
+      <c r="B11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11">
+        <v>-5.5</v>
+      </c>
+      <c r="E11">
+        <v>0.87436210021349114</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11">
+        <v>0.69799788876083824</v>
+      </c>
+      <c r="K11">
+        <v>2.5676806505817922</v>
+      </c>
+      <c r="L11">
+        <v>-3.8677826232591299E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12">
+        <v>-6.5</v>
+      </c>
+      <c r="E12">
+        <v>0.8541011813146886</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>5.9922086254100444</v>
+      </c>
+      <c r="K12">
+        <v>5.5927763875107246</v>
+      </c>
+      <c r="L12">
+        <v>1.9114265072733099E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>-5.5</v>
+      </c>
+      <c r="E13">
+        <v>0.8487377119957803</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>449</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>-4.1326579703530939</v>
+      </c>
+      <c r="K13">
+        <v>-4.7700003502166766</v>
+      </c>
+      <c r="L13">
+        <v>1.4774649927125899E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14">
+        <v>-4.5</v>
+      </c>
+      <c r="E14">
+        <v>0.84765218565153977</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>-0.26853491326716039</v>
+      </c>
+      <c r="K14">
+        <v>1.550698473005482</v>
+      </c>
+      <c r="L14">
+        <v>-3.9852704035691001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15">
+        <v>-20.5</v>
+      </c>
+      <c r="E15">
+        <v>0.79924988958534937</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>452</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>10.607743574684999</v>
+      </c>
+      <c r="K15">
+        <v>-4.9458081545378008</v>
+      </c>
+      <c r="L15">
+        <v>0.19551249101161411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>-6.5</v>
+      </c>
+      <c r="E16">
+        <v>0.78234370472329273</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>453</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>4.0024287913537648</v>
+      </c>
+      <c r="K16">
+        <v>2.6866516505333209</v>
+      </c>
+      <c r="L16">
+        <v>3.4818645721071899E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17">
+        <v>-9.5</v>
+      </c>
+      <c r="E17">
+        <v>0.76362335827464878</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>454</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>-0.48804522451553112</v>
+      </c>
+      <c r="K17">
+        <v>-4.798365697806716</v>
+      </c>
+      <c r="L17">
+        <v>9.5467365312085301E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18">
+        <v>-29.5</v>
+      </c>
+      <c r="E18">
+        <v>0.33407206669252831</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>285</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>12.65684173580631</v>
+      </c>
+      <c r="K18">
+        <v>-14.14961733246513</v>
+      </c>
+      <c r="L18">
+        <v>0.6139511755489403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>436</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19">
+        <v>-20.5</v>
+      </c>
+      <c r="E19">
+        <v>0.62159289783300153</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>455</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19">
+        <v>16.075566732654242</v>
+      </c>
+      <c r="K19">
+        <v>-5.6127122810436703</v>
+      </c>
+      <c r="L19">
+        <v>0.50083442513614895</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>456</v>
+      </c>
+      <c r="D20">
+        <v>-27.5</v>
+      </c>
+      <c r="E20">
+        <v>0.42700199539894979</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20">
+        <v>10.17017740686593</v>
+      </c>
+      <c r="K20">
+        <v>-12.599980212055611</v>
+      </c>
+      <c r="L20">
+        <v>0.46329603281415149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21">
+        <v>-18.5</v>
+      </c>
+      <c r="E21">
+        <v>0.52743401330551754</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>8.4484717481646356</v>
+      </c>
+      <c r="K21">
+        <v>-8.0019928588502154</v>
+      </c>
+      <c r="L21">
+        <v>0.39018712021271168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.3671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2">
+        <v>10.5</v>
+      </c>
+      <c r="E2">
+        <v>0.9598322018362947</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>458</v>
+      </c>
+      <c r="J2">
+        <v>-7.319608093912521</v>
+      </c>
+      <c r="K2">
+        <v>7.8425761868433446</v>
+      </c>
+      <c r="L2">
+        <v>-0.31394068560499971</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3">
+        <v>1.5</v>
+      </c>
+      <c r="E3">
+        <v>0.92334212317095576</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>460</v>
+      </c>
+      <c r="J3">
+        <v>-5.0975977695323422</v>
+      </c>
+      <c r="K3">
+        <v>1.6319954652087181</v>
+      </c>
+      <c r="L3">
+        <v>-0.18023534016427001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>1.5</v>
+      </c>
+      <c r="E4">
+        <v>0.90992959214385216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>461</v>
+      </c>
+      <c r="J4">
+        <v>5.013031602293907</v>
+      </c>
+      <c r="K4">
+        <v>4.2208332376520454</v>
+      </c>
+      <c r="L4">
+        <v>2.2799112505731599E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5">
+        <v>-5.5</v>
+      </c>
+      <c r="E5">
+        <v>0.85842280838933849</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>462</v>
+      </c>
+      <c r="J5">
+        <v>4.0995666854206263</v>
+      </c>
+      <c r="K5">
+        <v>0.50418052353120402</v>
+      </c>
+      <c r="L5">
+        <v>2.7195818766258501E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6">
+        <v>-6.5</v>
+      </c>
+      <c r="E6">
+        <v>0.84641395095410465</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>463</v>
+      </c>
+      <c r="J6">
+        <v>2.3554835844340118</v>
+      </c>
+      <c r="K6">
+        <v>-3.557334397532514</v>
+      </c>
+      <c r="L6">
+        <v>0.15347371858026129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>-39.5</v>
+      </c>
+      <c r="E7">
+        <v>0.19238191543691291</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>464</v>
+      </c>
+      <c r="J7">
+        <v>17.638482551853539</v>
+      </c>
+      <c r="K7">
+        <v>-14.450983758272841</v>
+      </c>
+      <c r="L7">
+        <v>0.69474644900175075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>457</v>
+      </c>
+      <c r="B8" t="s">
+        <v>275</v>
+      </c>
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8">
+        <v>-13.5</v>
+      </c>
+      <c r="E8">
+        <v>0.79707187093879095</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>465</v>
+      </c>
+      <c r="J8">
+        <v>4.299329445541801</v>
+      </c>
+      <c r="K8">
+        <v>-8.3094191747128718</v>
+      </c>
+      <c r="L8">
+        <v>0.24996247929543841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <v>-7.5</v>
+      </c>
+      <c r="E9">
+        <v>0.79267414932731073</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J9">
+        <v>5.1586720539626043</v>
+      </c>
+      <c r="K9">
+        <v>-0.89693024328363435</v>
+      </c>
+      <c r="L9">
+        <v>3.7885600208189499E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10">
+        <v>-12.5</v>
+      </c>
+      <c r="E10">
+        <v>0.75477501692956395</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>467</v>
+      </c>
+      <c r="J10">
+        <v>8.583257546715501</v>
+      </c>
+      <c r="K10">
+        <v>3.031228961961915</v>
+      </c>
+      <c r="L10">
+        <v>6.6376000465392604E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>457</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11">
+        <v>-12.5</v>
+      </c>
+      <c r="E11">
+        <v>0.74334174937884223</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>468</v>
+      </c>
+      <c r="J11">
+        <v>0.92519418780892682</v>
+      </c>
+      <c r="K11">
+        <v>-7.2870651029458458</v>
+      </c>
+      <c r="L11">
+        <v>0.19800245408781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B12" t="s">
+        <v>469</v>
+      </c>
+      <c r="C12" t="s">
+        <v>470</v>
+      </c>
+      <c r="D12">
+        <v>-7.5</v>
+      </c>
+      <c r="E12">
+        <v>0.72551996151155063</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>471</v>
+      </c>
+      <c r="J12">
+        <v>6.8206388853273978</v>
+      </c>
+      <c r="K12">
+        <v>6.7020543526952991</v>
+      </c>
+      <c r="L12">
+        <v>2.9656348326668998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13">
+        <v>-12.5</v>
+      </c>
+      <c r="E13">
+        <v>0.72364343387956565</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>472</v>
+      </c>
+      <c r="J13">
+        <v>5.1890473068217924</v>
+      </c>
+      <c r="K13">
+        <v>-7.4275677342687629</v>
+      </c>
+      <c r="L13">
+        <v>0.31373448824247008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>473</v>
+      </c>
+      <c r="D14">
+        <v>-35.5</v>
+      </c>
+      <c r="E14">
+        <v>0.33224894217967399</v>
+      </c>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>474</v>
+      </c>
+      <c r="J14">
+        <v>18.169549536590409</v>
+      </c>
+      <c r="K14">
+        <v>-15.87021010839416</v>
+      </c>
+      <c r="L14">
+        <v>0.67802381571304804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15">
+        <v>-35.5</v>
+      </c>
+      <c r="E15">
+        <v>0.33996208064755051</v>
+      </c>
+      <c r="F15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>475</v>
+      </c>
+      <c r="J15">
+        <v>21.444649547377711</v>
+      </c>
+      <c r="K15">
+        <v>-12.632156425544149</v>
+      </c>
+      <c r="L15">
+        <v>0.71539834682261705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16">
+        <v>-17.5</v>
+      </c>
+      <c r="E16">
+        <v>0.64926284398153689</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>476</v>
+      </c>
+      <c r="J16">
+        <v>11.845116512444751</v>
+      </c>
+      <c r="K16">
+        <v>-8.2355007726698233</v>
+      </c>
+      <c r="L16">
+        <v>0.50112459357842665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>457</v>
+      </c>
+      <c r="B17" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17">
+        <v>-16.5</v>
+      </c>
+      <c r="E17">
+        <v>0.60614962314767418</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>477</v>
+      </c>
+      <c r="J17">
+        <v>9.9164624670255233</v>
+      </c>
+      <c r="K17">
+        <v>-7.1747808337147214</v>
+      </c>
+      <c r="L17">
+        <v>0.43517869963691258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>457</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18">
+        <v>-24.5</v>
+      </c>
+      <c r="E18">
+        <v>0.60467304860749571</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>478</v>
+      </c>
+      <c r="J18">
+        <v>6.527281949101166</v>
+      </c>
+      <c r="K18">
+        <v>-9.8210545341520401</v>
+      </c>
+      <c r="L18">
+        <v>0.36880302004938198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19">
+        <v>-24.5</v>
+      </c>
+      <c r="E19">
+        <v>0.58956443947582748</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19">
+        <v>14.339790331448871</v>
+      </c>
+      <c r="K19">
+        <v>-9.3628999494838894</v>
+      </c>
+      <c r="L19">
+        <v>0.5387762265888052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>457</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20">
+        <v>-25.5</v>
+      </c>
+      <c r="E20">
+        <v>0.45712759028256728</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20">
+        <v>10.387561721891171</v>
+      </c>
+      <c r="K20">
+        <v>-14.334884496937191</v>
+      </c>
+      <c r="L20">
+        <v>0.58513156078221729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>457</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>479</v>
+      </c>
+      <c r="D21">
+        <v>-26.5</v>
+      </c>
+      <c r="E21">
+        <v>0.51049430695912124</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>8.5022734731637115</v>
+      </c>
+      <c r="K21">
+        <v>-14.616055447801241</v>
+      </c>
+      <c r="L21">
+        <v>0.448951385944306</v>
       </c>
     </row>
   </sheetData>

--- a/prediction_tracker.xlsx
+++ b/prediction_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nboys\College Basketball Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8991E9B-29CD-4AF9-906B-8B4F7C00F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F70719-B2DC-40A3-AA03-F3F6EB16AEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="75" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025-11-09" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="2025-11-15" sheetId="7" r:id="rId7"/>
     <sheet name="2025-11-16" sheetId="8" r:id="rId8"/>
     <sheet name="2025-11-17" sheetId="9" r:id="rId9"/>
+    <sheet name="2025-11-18" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="524">
   <si>
     <t>prediction_date</t>
   </si>
@@ -1404,37 +1405,31 @@
     <t>2025-11-17</t>
   </si>
   <si>
-    <t>BET Louisiana Monroe to COVER</t>
+    <t>BET Louisiana Monroe +10.5</t>
   </si>
   <si>
     <t>North Dakota St.</t>
   </si>
   <si>
-    <t>BET North Dakota St. to COVER</t>
-  </si>
-  <si>
-    <t>BET Le Moyne to COVER</t>
-  </si>
-  <si>
-    <t>BET Kentucky to COVER</t>
-  </si>
-  <si>
-    <t>BET Siena to COVER</t>
-  </si>
-  <si>
-    <t>BET Florida A&amp;M to COVER</t>
-  </si>
-  <si>
-    <t>BET Oregon to COVER</t>
-  </si>
-  <si>
-    <t>BET Duke to COVER</t>
-  </si>
-  <si>
-    <t>BET N.C. State to COVER</t>
-  </si>
-  <si>
-    <t>BET Kansas St. to COVER</t>
+    <t>BET North Dakota St. +1.5</t>
+  </si>
+  <si>
+    <t>BET Le Moyne +1.5</t>
+  </si>
+  <si>
+    <t>BET Siena -6.5</t>
+  </si>
+  <si>
+    <t>BET Florida A&amp;M +39.5</t>
+  </si>
+  <si>
+    <t>BET Oregon -13.5</t>
+  </si>
+  <si>
+    <t>BET N.C. State -12.5</t>
+  </si>
+  <si>
+    <t>LEAN Kansas St. -12.5</t>
   </si>
   <si>
     <t>Charleston</t>
@@ -1443,44 +1438,187 @@
     <t>Drake</t>
   </si>
   <si>
-    <t>BET Charleston to COVER</t>
-  </si>
-  <si>
-    <t>BET UCF to COVER</t>
+    <t>LEAN Charleston -7.5</t>
+  </si>
+  <si>
+    <t>LEAN UCF -12.5</t>
   </si>
   <si>
     <t>Southern Utah</t>
   </si>
   <si>
-    <t>LEAN Southern Utah (Medium confidence)</t>
-  </si>
-  <si>
-    <t>LEAN Prairie View A&amp;M (Medium confidence)</t>
-  </si>
-  <si>
-    <t>LEAN Arizona St. (Medium confidence)</t>
-  </si>
-  <si>
-    <t>LEAN Pittsburgh (Medium confidence)</t>
-  </si>
-  <si>
-    <t>LEAN Clemson (Medium confidence)</t>
-  </si>
-  <si>
-    <t>Rice</t>
+    <t>LEAN Southern Utah +35.5</t>
+  </si>
+  <si>
+    <t>LEAN Prairie View A&amp;M +35.5</t>
+  </si>
+  <si>
+    <t>CONSIDER Arizona St. -17.5</t>
+  </si>
+  <si>
+    <t>CONSIDER Pittsburgh -16.5</t>
+  </si>
+  <si>
+    <t>CONSIDER Clemson -24.5</t>
+  </si>
+  <si>
+    <t>CONSIDER High Point -24.5</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>BET Buffalo +2.5</t>
+  </si>
+  <si>
+    <t>North Carolina A&amp;T</t>
+  </si>
+  <si>
+    <t>BET Morgan St. +2.5</t>
+  </si>
+  <si>
+    <t>BET Evansville -2.5</t>
+  </si>
+  <si>
+    <t>Pepperdine</t>
+  </si>
+  <si>
+    <t>BET Pepperdine -4.5</t>
+  </si>
+  <si>
+    <t>BET Iona -3.5</t>
+  </si>
+  <si>
+    <t>BET James Madison +2.5</t>
+  </si>
+  <si>
+    <t>BET Yale -8.5</t>
+  </si>
+  <si>
+    <t>BET Kentucky -4.5</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>BET UNC Wilmington -5.5</t>
+  </si>
+  <si>
+    <t>BET Brown -3.5</t>
+  </si>
+  <si>
+    <t>BET Drexel -12.5</t>
+  </si>
+  <si>
+    <t>BET Boise St. -9.5</t>
+  </si>
+  <si>
+    <t>BET San Diego -6.5</t>
+  </si>
+  <si>
+    <t>BET South Carolina -9.5</t>
+  </si>
+  <si>
+    <t>BET Utah -12.5</t>
+  </si>
+  <si>
+    <t>BET Columbia -6.5</t>
+  </si>
+  <si>
+    <t>BET Texas A&amp;M -17.5</t>
+  </si>
+  <si>
+    <t>BET Murray St. -14.5</t>
+  </si>
+  <si>
+    <t>BET George Mason -15.5</t>
+  </si>
+  <si>
+    <t>LEAN Duke -11.5</t>
+  </si>
+  <si>
+    <t>LEAN Boston College -11.5</t>
+  </si>
+  <si>
+    <t>LEAN Xavier -10.5</t>
+  </si>
+  <si>
+    <t>LEAN Arkansas -22.5</t>
+  </si>
+  <si>
+    <t>San Diego St.</t>
+  </si>
+  <si>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>LEAN San Diego St. -15.5</t>
+  </si>
+  <si>
+    <t>LEAN Nevada -12.5</t>
+  </si>
+  <si>
+    <t>Rider</t>
+  </si>
+  <si>
+    <t>LEAN Rider +30.5</t>
+  </si>
+  <si>
+    <t>LEAN Rutgers -14.5</t>
+  </si>
+  <si>
+    <t>LEAN Mississippi -22.5</t>
+  </si>
+  <si>
+    <t>CONSIDER San Francisco -19.5</t>
+  </si>
+  <si>
+    <t>CONSIDER Alcorn St. +32.5</t>
+  </si>
+  <si>
+    <t>CONSIDER Syracuse -21.5</t>
+  </si>
+  <si>
+    <t>CONSIDER Florida St. -20.5</t>
+  </si>
+  <si>
+    <t>CONSIDER North Carolina -25.5</t>
+  </si>
+  <si>
+    <t>CONSIDER DePaul -22.5</t>
+  </si>
+  <si>
+    <t>CONSIDER UCLA -28.5</t>
+  </si>
+  <si>
+    <t>CONSIDER Cornell -17.5</t>
+  </si>
+  <si>
+    <t>CONSIDER Stanford -20.5</t>
+  </si>
+  <si>
+    <t>CONSIDER Seton Hall -25.5</t>
+  </si>
+  <si>
+    <t>CONSIDER California -22.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -1536,7 +1674,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1679,11 +1817,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1711,6 +1864,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2635,6 +2791,1315 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:L40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>2.5</v>
+      </c>
+      <c r="E2">
+        <v>0.91052057363190442</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J2">
+        <v>-4.4075517817605743</v>
+      </c>
+      <c r="K2">
+        <v>4.6019669841059709</v>
+      </c>
+      <c r="L2">
+        <v>-0.20259940515951319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3">
+        <v>0.90509992153478824</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>481</v>
+      </c>
+      <c r="J3">
+        <v>-1.1499258298008641</v>
+      </c>
+      <c r="K3">
+        <v>2.7237361760804788</v>
+      </c>
+      <c r="L3">
+        <v>-5.5498223692212897E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4">
+        <v>-2.5</v>
+      </c>
+      <c r="E4">
+        <v>0.89999364766285861</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J4">
+        <v>-1.298775610906759</v>
+      </c>
+      <c r="K4">
+        <v>1.0683888404247599</v>
+      </c>
+      <c r="L4">
+        <v>-6.1445319984146603E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>-4.5</v>
+      </c>
+      <c r="E5">
+        <v>0.89076143934359597</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" t="s">
+        <v>484</v>
+      </c>
+      <c r="J5">
+        <v>-5.0958382562571529</v>
+      </c>
+      <c r="K5">
+        <v>-1.8079227748023361</v>
+      </c>
+      <c r="L5">
+        <v>-8.0966371877400606E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6">
+        <v>-3.5</v>
+      </c>
+      <c r="E6">
+        <v>0.887439030670234</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>485</v>
+      </c>
+      <c r="J6">
+        <v>4.7783205770101773</v>
+      </c>
+      <c r="K6">
+        <v>1.7365945268590219</v>
+      </c>
+      <c r="L6">
+        <v>8.2270441129082605E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>0.88673646582780319</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>486</v>
+      </c>
+      <c r="J7">
+        <v>3.1576968835152002</v>
+      </c>
+      <c r="K7">
+        <v>5.9159255307837668</v>
+      </c>
+      <c r="L7">
+        <v>-7.5077113943064294E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8">
+        <v>-8.5</v>
+      </c>
+      <c r="E8">
+        <v>0.86791033018940644</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>487</v>
+      </c>
+      <c r="J8">
+        <v>7.7179329851954179</v>
+      </c>
+      <c r="K8">
+        <v>-1.7571199542921361</v>
+      </c>
+      <c r="L8">
+        <v>0.22703274848116911</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9">
+        <v>-4.5</v>
+      </c>
+      <c r="E9">
+        <v>0.86662422386799698</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>488</v>
+      </c>
+      <c r="J9">
+        <v>4.0942531661255259</v>
+      </c>
+      <c r="K9">
+        <v>0.52651588834319796</v>
+      </c>
+      <c r="L9">
+        <v>2.6989590068516402E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D10">
+        <v>-5.5</v>
+      </c>
+      <c r="E10">
+        <v>0.85926533827602236</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>490</v>
+      </c>
+      <c r="J10">
+        <v>2.4635388029266641</v>
+      </c>
+      <c r="K10">
+        <v>-0.37759259856051131</v>
+      </c>
+      <c r="L10">
+        <v>7.5823938067789795E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>-3.5</v>
+      </c>
+      <c r="E11">
+        <v>0.85188148375631156</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>491</v>
+      </c>
+      <c r="J11">
+        <v>-2.3455234356986669</v>
+      </c>
+      <c r="K11">
+        <v>-7.9470341170601841</v>
+      </c>
+      <c r="L11">
+        <v>0.1080583170330956</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12">
+        <v>-12.5</v>
+      </c>
+      <c r="E12">
+        <v>0.84387121131779186</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>492</v>
+      </c>
+      <c r="J12">
+        <v>2.0051418511613832</v>
+      </c>
+      <c r="K12">
+        <v>-2.8776287062775618</v>
+      </c>
+      <c r="L12">
+        <v>9.6900302184999898E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13">
+        <v>-9.5</v>
+      </c>
+      <c r="E13">
+        <v>0.83078338752897007</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>493</v>
+      </c>
+      <c r="J13">
+        <v>3.7882683522767309</v>
+      </c>
+      <c r="K13">
+        <v>-4.9625599646535079</v>
+      </c>
+      <c r="L13">
+        <v>0.1759108193672016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>478</v>
+      </c>
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14">
+        <v>-6.5</v>
+      </c>
+      <c r="E14">
+        <v>0.80039792669931742</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>494</v>
+      </c>
+      <c r="J14">
+        <v>8.0326170766720821</v>
+      </c>
+      <c r="K14">
+        <v>-8.3630683208582399E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.20184719283795879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15">
+        <v>-9.5</v>
+      </c>
+      <c r="E15">
+        <v>0.79498724542047827</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>495</v>
+      </c>
+      <c r="J15">
+        <v>1.1980208288685641</v>
+      </c>
+      <c r="K15">
+        <v>-5.8662816115774916</v>
+      </c>
+      <c r="L15">
+        <v>0.1836121916601304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>478</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16">
+        <v>-12.5</v>
+      </c>
+      <c r="E16">
+        <v>0.78824208260717243</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>496</v>
+      </c>
+      <c r="J16">
+        <v>8.972146988766923</v>
+      </c>
+      <c r="K16">
+        <v>-3.9217690961916531</v>
+      </c>
+      <c r="L16">
+        <v>0.33006252418946908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17">
+        <v>-6.5</v>
+      </c>
+      <c r="E17">
+        <v>0.78732246303732134</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>497</v>
+      </c>
+      <c r="J17">
+        <v>3.4942780800506001E-2</v>
+      </c>
+      <c r="K17">
+        <v>-1.679010114857292</v>
+      </c>
+      <c r="L17">
+        <v>3.9260916599151298E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18">
+        <v>-17.5</v>
+      </c>
+      <c r="E18">
+        <v>0.7725992568273885</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>498</v>
+      </c>
+      <c r="J18">
+        <v>8.4200485270847878</v>
+      </c>
+      <c r="K18">
+        <v>-8.214669305578596</v>
+      </c>
+      <c r="L18">
+        <v>0.37562196554244442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>478</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19">
+        <v>-14.5</v>
+      </c>
+      <c r="E19">
+        <v>0.7650701537546164</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>499</v>
+      </c>
+      <c r="J19">
+        <v>3.8237311730329822</v>
+      </c>
+      <c r="K19">
+        <v>-1.783492398574438</v>
+      </c>
+      <c r="L19">
+        <v>0.14795479375997819</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>478</v>
+      </c>
+      <c r="B20" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20">
+        <v>-15.5</v>
+      </c>
+      <c r="E20">
+        <v>0.75136520684177555</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>500</v>
+      </c>
+      <c r="J20">
+        <v>5.5991874818179639</v>
+      </c>
+      <c r="K20">
+        <v>-7.2598325518603133</v>
+      </c>
+      <c r="L20">
+        <v>0.33959647129934961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>478</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21">
+        <v>-11.5</v>
+      </c>
+      <c r="E21">
+        <v>0.73900292230220177</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>501</v>
+      </c>
+      <c r="J21">
+        <v>5.1655830789215136</v>
+      </c>
+      <c r="K21">
+        <v>-0.89885998176538351</v>
+      </c>
+      <c r="L21">
+        <v>3.8136087875158403E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>478</v>
+      </c>
+      <c r="B22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22">
+        <v>-11.5</v>
+      </c>
+      <c r="E22">
+        <v>0.72412135044461678</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>502</v>
+      </c>
+      <c r="J22">
+        <v>5.2697196560410617</v>
+      </c>
+      <c r="K22">
+        <v>-5.2098069384111483</v>
+      </c>
+      <c r="L22">
+        <v>0.2759028038949457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>478</v>
+      </c>
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23">
+        <v>-10.5</v>
+      </c>
+      <c r="E23">
+        <v>0.71148768973128917</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>503</v>
+      </c>
+      <c r="J23">
+        <v>1.5245152028601301</v>
+      </c>
+      <c r="K23">
+        <v>-8.3663363222176201</v>
+      </c>
+      <c r="L23">
+        <v>0.2599889565876975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>478</v>
+      </c>
+      <c r="B24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24">
+        <v>-22.5</v>
+      </c>
+      <c r="E24">
+        <v>0.70449719282397605</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>504</v>
+      </c>
+      <c r="J24">
+        <v>12.5528839141988</v>
+      </c>
+      <c r="K24">
+        <v>-9.9308735088086024</v>
+      </c>
+      <c r="L24">
+        <v>0.44772343842787371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>478</v>
+      </c>
+      <c r="B25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C25" t="s">
+        <v>506</v>
+      </c>
+      <c r="D25">
+        <v>-15.5</v>
+      </c>
+      <c r="E25">
+        <v>0.69289542379006708</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" t="s">
+        <v>507</v>
+      </c>
+      <c r="J25">
+        <v>4.3911058431210392</v>
+      </c>
+      <c r="K25">
+        <v>-7.8896410878533354</v>
+      </c>
+      <c r="L25">
+        <v>0.2656711904803773</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26">
+        <v>-12.5</v>
+      </c>
+      <c r="E26">
+        <v>0.69187484046467462</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
+        <v>508</v>
+      </c>
+      <c r="J26">
+        <v>6.2520870894462064</v>
+      </c>
+      <c r="K26">
+        <v>-1.626292581933882</v>
+      </c>
+      <c r="L26">
+        <v>0.21253096752498221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>478</v>
+      </c>
+      <c r="B27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" t="s">
+        <v>509</v>
+      </c>
+      <c r="D27">
+        <v>-30.5</v>
+      </c>
+      <c r="E27">
+        <v>0.32003431956343958</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>510</v>
+      </c>
+      <c r="J27">
+        <v>15.644465285876359</v>
+      </c>
+      <c r="K27">
+        <v>-13.56613651632132</v>
+      </c>
+      <c r="L27">
+        <v>0.64913809062549832</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>478</v>
+      </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D28">
+        <v>-14.5</v>
+      </c>
+      <c r="E28">
+        <v>0.67968942602399041</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s">
+        <v>511</v>
+      </c>
+      <c r="J28">
+        <v>7.9315647472664486</v>
+      </c>
+      <c r="K28">
+        <v>-9.0546504971375583</v>
+      </c>
+      <c r="L28">
+        <v>0.4282889880974679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>478</v>
+      </c>
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="C29" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29">
+        <v>-22.5</v>
+      </c>
+      <c r="E29">
+        <v>0.66813649922484941</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
+        <v>512</v>
+      </c>
+      <c r="J29">
+        <v>14.769953749765479</v>
+      </c>
+      <c r="K29">
+        <v>-5.8819039043259522</v>
+      </c>
+      <c r="L29">
+        <v>0.47008322189184337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>478</v>
+      </c>
+      <c r="B30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30">
+        <v>-19.5</v>
+      </c>
+      <c r="E30">
+        <v>0.64150773737754618</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>513</v>
+      </c>
+      <c r="J30">
+        <v>8.3167837107190223</v>
+      </c>
+      <c r="K30">
+        <v>-10.844677352214401</v>
+      </c>
+      <c r="L30">
+        <v>0.46896981700920609</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>478</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31">
+        <v>-32.5</v>
+      </c>
+      <c r="E31">
+        <v>0.38434216940956911</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>514</v>
+      </c>
+      <c r="J31">
+        <v>16.447843824640572</v>
+      </c>
+      <c r="K31">
+        <v>-11.578074277557381</v>
+      </c>
+      <c r="L31">
+        <v>0.63391732064858686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>478</v>
+      </c>
+      <c r="B32" t="s">
+        <v>434</v>
+      </c>
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32">
+        <v>-21.5</v>
+      </c>
+      <c r="E32">
+        <v>0.61322504557565849</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>515</v>
+      </c>
+      <c r="J32">
+        <v>11.84132880181096</v>
+      </c>
+      <c r="K32">
+        <v>-6.7430776177236709</v>
+      </c>
+      <c r="L32">
+        <v>0.43060395330859708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>478</v>
+      </c>
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33">
+        <v>-20.5</v>
+      </c>
+      <c r="E33">
+        <v>0.60385342410485432</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>516</v>
+      </c>
+      <c r="J33">
+        <v>12.24541382037201</v>
+      </c>
+      <c r="K33">
+        <v>-10.16852344719277</v>
+      </c>
+      <c r="L33">
+        <v>0.5419322875744168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>478</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34">
+        <v>-25.5</v>
+      </c>
+      <c r="E34">
+        <v>0.59635841989206406</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>517</v>
+      </c>
+      <c r="J34">
+        <v>11.945484362619201</v>
+      </c>
+      <c r="K34">
+        <v>-12.50113898027173</v>
+      </c>
+      <c r="L34">
+        <v>0.49137414176276578</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>478</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>414</v>
+      </c>
+      <c r="D35">
+        <v>-22.5</v>
+      </c>
+      <c r="E35">
+        <v>0.59088918675223212</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>518</v>
+      </c>
+      <c r="J35">
+        <v>14.131018386137169</v>
+      </c>
+      <c r="K35">
+        <v>-10.15375140127901</v>
+      </c>
+      <c r="L35">
+        <v>0.55983878389195341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>478</v>
+      </c>
+      <c r="B36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" t="s">
+        <v>334</v>
+      </c>
+      <c r="D36">
+        <v>-28.5</v>
+      </c>
+      <c r="E36">
+        <v>0.58630689192962782</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>519</v>
+      </c>
+      <c r="J36">
+        <v>13.36470540473276</v>
+      </c>
+      <c r="K36">
+        <v>-15.497531640913831</v>
+      </c>
+      <c r="L36">
+        <v>0.59566289497632474</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>478</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37">
+        <v>-17.5</v>
+      </c>
+      <c r="E37">
+        <v>0.57482864855894888</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>520</v>
+      </c>
+      <c r="J37">
+        <v>12.012877917112601</v>
+      </c>
+      <c r="K37">
+        <v>-4.0280044171164064</v>
+      </c>
+      <c r="L37">
+        <v>0.32184991301177851</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>478</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38">
+        <v>-20.5</v>
+      </c>
+      <c r="E38">
+        <v>0.56937924156741837</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>521</v>
+      </c>
+      <c r="J38">
+        <v>4.3796118086438156</v>
+      </c>
+      <c r="K38">
+        <v>-9.1138649187133183</v>
+      </c>
+      <c r="L38">
+        <v>0.34904845067183138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>478</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>380</v>
+      </c>
+      <c r="D39">
+        <v>-25.5</v>
+      </c>
+      <c r="E39">
+        <v>0.5627086213127428</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>522</v>
+      </c>
+      <c r="J39">
+        <v>13.982709928513261</v>
+      </c>
+      <c r="K39">
+        <v>-8.6502333671711966</v>
+      </c>
+      <c r="L39">
+        <v>0.51733732989642811</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>478</v>
+      </c>
+      <c r="B40" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40">
+        <v>-22.5</v>
+      </c>
+      <c r="E40">
+        <v>0.56131792855328289</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>523</v>
+      </c>
+      <c r="J40">
+        <v>10.9833621907904</v>
+      </c>
+      <c r="K40">
+        <v>-5.9119574533641384</v>
+      </c>
+      <c r="L40">
+        <v>0.42422644668279691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L13"/>
@@ -9999,7 +11464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -10759,9 +12224,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -10769,7 +12236,8 @@
     <col min="2" max="3" width="15.47265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.3671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.15625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.05078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -10832,6 +12300,9 @@
       <c r="G2" t="s">
         <v>458</v>
       </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2">
         <v>-7.319608093912521</v>
       </c>
@@ -10864,6 +12335,9 @@
       <c r="G3" t="s">
         <v>460</v>
       </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
       <c r="J3">
         <v>-5.0975977695323422</v>
       </c>
@@ -10896,6 +12370,9 @@
       <c r="G4" t="s">
         <v>461</v>
       </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
       <c r="J4">
         <v>5.013031602293907</v>
       </c>
@@ -10911,16 +12388,16 @@
         <v>457</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>169</v>
       </c>
       <c r="D5">
-        <v>-5.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E5">
-        <v>0.85842280838933849</v>
+        <v>0.84641395095410465</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -10928,14 +12405,17 @@
       <c r="G5" t="s">
         <v>462</v>
       </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
       <c r="J5">
-        <v>4.0995666854206263</v>
+        <v>2.3554835844340118</v>
       </c>
       <c r="K5">
-        <v>0.50418052353120402</v>
+        <v>-3.557334397532514</v>
       </c>
       <c r="L5">
-        <v>2.7195818766258501E-2</v>
+        <v>0.15347371858026129</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -10943,16 +12423,16 @@
         <v>457</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>-6.5</v>
+        <v>-39.5</v>
       </c>
       <c r="E6">
-        <v>0.84641395095410465</v>
+        <v>0.19238191543691291</v>
       </c>
       <c r="F6" t="s">
         <v>89</v>
@@ -10960,14 +12440,17 @@
       <c r="G6" t="s">
         <v>463</v>
       </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6">
-        <v>2.3554835844340118</v>
+        <v>17.638482551853539</v>
       </c>
       <c r="K6">
-        <v>-3.557334397532514</v>
+        <v>-14.450983758272841</v>
       </c>
       <c r="L6">
-        <v>0.15347371858026129</v>
+        <v>0.69474644900175075</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -10975,16 +12458,16 @@
         <v>457</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="D7">
-        <v>-39.5</v>
+        <v>-13.5</v>
       </c>
       <c r="E7">
-        <v>0.19238191543691291</v>
+        <v>0.79707187093879095</v>
       </c>
       <c r="F7" t="s">
         <v>89</v>
@@ -10992,14 +12475,17 @@
       <c r="G7" t="s">
         <v>464</v>
       </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
       <c r="J7">
-        <v>17.638482551853539</v>
+        <v>4.299329445541801</v>
       </c>
       <c r="K7">
-        <v>-14.450983758272841</v>
+        <v>-8.3094191747128718</v>
       </c>
       <c r="L7">
-        <v>0.69474644900175075</v>
+        <v>0.24996247929543841</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11007,16 +12493,16 @@
         <v>457</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>-13.5</v>
+        <v>-12.5</v>
       </c>
       <c r="E8">
-        <v>0.79707187093879095</v>
+        <v>0.75477501692956395</v>
       </c>
       <c r="F8" t="s">
         <v>89</v>
@@ -11024,14 +12510,17 @@
       <c r="G8" t="s">
         <v>465</v>
       </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
       <c r="J8">
-        <v>4.299329445541801</v>
+        <v>8.583257546715501</v>
       </c>
       <c r="K8">
-        <v>-8.3094191747128718</v>
+        <v>3.031228961961915</v>
       </c>
       <c r="L8">
-        <v>0.24996247929543841</v>
+        <v>6.6376000465392604E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11039,31 +12528,34 @@
         <v>457</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="D9">
-        <v>-7.5</v>
+        <v>-12.5</v>
       </c>
       <c r="E9">
-        <v>0.79267414932731073</v>
+        <v>0.74334174937884223</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>466</v>
       </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
       <c r="J9">
-        <v>5.1586720539626043</v>
+        <v>0.92519418780892682</v>
       </c>
       <c r="K9">
-        <v>-0.89693024328363435</v>
+        <v>-7.2870651029458458</v>
       </c>
       <c r="L9">
-        <v>3.7885600208189499E-2</v>
+        <v>0.19800245408781</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11071,31 +12563,34 @@
         <v>457</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>467</v>
       </c>
       <c r="C10" t="s">
-        <v>249</v>
+        <v>468</v>
       </c>
       <c r="D10">
-        <v>-12.5</v>
+        <v>-7.5</v>
       </c>
       <c r="E10">
-        <v>0.75477501692956395</v>
+        <v>0.72551996151155063</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>467</v>
+        <v>469</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
       </c>
       <c r="J10">
-        <v>8.583257546715501</v>
+        <v>6.8206388853273978</v>
       </c>
       <c r="K10">
-        <v>3.031228961961915</v>
+        <v>6.7020543526952991</v>
       </c>
       <c r="L10">
-        <v>6.6376000465392604E-2</v>
+        <v>2.9656348326668998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11103,31 +12598,34 @@
         <v>457</v>
       </c>
       <c r="B11" t="s">
-        <v>304</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D11">
         <v>-12.5</v>
       </c>
       <c r="E11">
-        <v>0.74334174937884223</v>
+        <v>0.72364343387956565</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>468</v>
+        <v>470</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
       </c>
       <c r="J11">
-        <v>0.92519418780892682</v>
+        <v>5.1890473068217924</v>
       </c>
       <c r="K11">
-        <v>-7.2870651029458458</v>
+        <v>-7.4275677342687629</v>
       </c>
       <c r="L11">
-        <v>0.19800245408781</v>
+        <v>0.31373448824247008</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11135,31 +12633,34 @@
         <v>457</v>
       </c>
       <c r="B12" t="s">
-        <v>469</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D12">
-        <v>-7.5</v>
+        <v>-35.5</v>
       </c>
       <c r="E12">
-        <v>0.72551996151155063</v>
+        <v>0.33224894217967399</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
       </c>
       <c r="J12">
-        <v>6.8206388853273978</v>
+        <v>18.169549536590409</v>
       </c>
       <c r="K12">
-        <v>6.7020543526952991</v>
+        <v>-15.87021010839416</v>
       </c>
       <c r="L12">
-        <v>2.9656348326668998E-3</v>
+        <v>0.67802381571304804</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11167,31 +12668,34 @@
         <v>457</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="D13">
-        <v>-12.5</v>
+        <v>-35.5</v>
       </c>
       <c r="E13">
-        <v>0.72364343387956565</v>
+        <v>0.33996208064755051</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
       </c>
       <c r="J13">
-        <v>5.1890473068217924</v>
+        <v>21.444649547377711</v>
       </c>
       <c r="K13">
-        <v>-7.4275677342687629</v>
+        <v>-12.632156425544149</v>
       </c>
       <c r="L13">
-        <v>0.31373448824247008</v>
+        <v>0.71539834682261705</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11199,31 +12703,34 @@
         <v>457</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>473</v>
+        <v>84</v>
       </c>
       <c r="D14">
-        <v>-35.5</v>
+        <v>-17.5</v>
       </c>
       <c r="E14">
-        <v>0.33224894217967399</v>
+        <v>0.64926284398153689</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>474</v>
       </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
       <c r="J14">
-        <v>18.169549536590409</v>
+        <v>11.845116512444751</v>
       </c>
       <c r="K14">
-        <v>-15.87021010839416</v>
+        <v>-8.2355007726698233</v>
       </c>
       <c r="L14">
-        <v>0.67802381571304804</v>
+        <v>0.50112459357842665</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11231,31 +12738,34 @@
         <v>457</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>310</v>
       </c>
       <c r="C15" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="D15">
-        <v>-35.5</v>
+        <v>-16.5</v>
       </c>
       <c r="E15">
-        <v>0.33996208064755051</v>
+        <v>0.60614962314767418</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>475</v>
       </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
       <c r="J15">
-        <v>21.444649547377711</v>
+        <v>9.9164624670255233</v>
       </c>
       <c r="K15">
-        <v>-12.632156425544149</v>
+        <v>-7.1747808337147214</v>
       </c>
       <c r="L15">
-        <v>0.71539834682261705</v>
+        <v>0.43517869963691258</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11263,31 +12773,34 @@
         <v>457</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="D16">
-        <v>-17.5</v>
+        <v>-24.5</v>
       </c>
       <c r="E16">
-        <v>0.64926284398153689</v>
+        <v>0.60467304860749571</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
         <v>476</v>
       </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
       <c r="J16">
-        <v>11.845116512444751</v>
+        <v>6.527281949101166</v>
       </c>
       <c r="K16">
-        <v>-8.2355007726698233</v>
+        <v>-9.8210545341520401</v>
       </c>
       <c r="L16">
-        <v>0.50112459357842665</v>
+        <v>0.36880302004938198</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -11295,159 +12808,34 @@
         <v>457</v>
       </c>
       <c r="B17" t="s">
-        <v>310</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="D17">
-        <v>-16.5</v>
+        <v>-24.5</v>
       </c>
       <c r="E17">
-        <v>0.60614962314767418</v>
+        <v>0.58956443947582748</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
         <v>477</v>
       </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
       <c r="J17">
-        <v>9.9164624670255233</v>
+        <v>14.339790331448871</v>
       </c>
       <c r="K17">
-        <v>-7.1747808337147214</v>
+        <v>-9.3628999494838894</v>
       </c>
       <c r="L17">
-        <v>0.43517869963691258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>457</v>
-      </c>
-      <c r="B18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18">
-        <v>-24.5</v>
-      </c>
-      <c r="E18">
-        <v>0.60467304860749571</v>
-      </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>478</v>
-      </c>
-      <c r="J18">
-        <v>6.527281949101166</v>
-      </c>
-      <c r="K18">
-        <v>-9.8210545341520401</v>
-      </c>
-      <c r="L18">
-        <v>0.36880302004938198</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>457</v>
-      </c>
-      <c r="B19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19">
-        <v>-24.5</v>
-      </c>
-      <c r="E19">
-        <v>0.58956443947582748</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19">
-        <v>14.339790331448871</v>
-      </c>
-      <c r="K19">
-        <v>-9.3628999494838894</v>
-      </c>
-      <c r="L19">
         <v>0.5387762265888052</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>457</v>
-      </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D20">
-        <v>-25.5</v>
-      </c>
-      <c r="E20">
-        <v>0.45712759028256728</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20">
-        <v>10.387561721891171</v>
-      </c>
-      <c r="K20">
-        <v>-14.334884496937191</v>
-      </c>
-      <c r="L20">
-        <v>0.58513156078221729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>457</v>
-      </c>
-      <c r="B21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" t="s">
-        <v>479</v>
-      </c>
-      <c r="D21">
-        <v>-26.5</v>
-      </c>
-      <c r="E21">
-        <v>0.51049430695912124</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21">
-        <v>8.5022734731637115</v>
-      </c>
-      <c r="K21">
-        <v>-14.616055447801241</v>
-      </c>
-      <c r="L21">
-        <v>0.448951385944306</v>
       </c>
     </row>
   </sheetData>

--- a/prediction_tracker.xlsx
+++ b/prediction_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nboys\College Basketball Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F70719-B2DC-40A3-AA03-F3F6EB16AEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C9095B-80E9-4CED-BD51-925CF1D94AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="505">
   <si>
     <t>prediction_date</t>
   </si>
@@ -1465,10 +1465,49 @@
     <t>CONSIDER High Point -24.5</t>
   </si>
   <si>
+    <t>home_games_played</t>
+  </si>
+  <si>
+    <t>away_games_played</t>
+  </si>
+  <si>
     <t>2025-11-18</t>
   </si>
   <si>
-    <t>BET Buffalo +2.5</t>
+    <t>BET American +14.5</t>
+  </si>
+  <si>
+    <t>BET Michigan St. +4.5</t>
+  </si>
+  <si>
+    <t>BET Hampton +11.5</t>
+  </si>
+  <si>
+    <t>BET Drexel -12.5</t>
+  </si>
+  <si>
+    <t>BET Princeton +3.5</t>
+  </si>
+  <si>
+    <t>BET Radford +9.5</t>
+  </si>
+  <si>
+    <t>BET Little Rock +14.5</t>
+  </si>
+  <si>
+    <t>BET Purdue Fort Wayne +12.5</t>
+  </si>
+  <si>
+    <t>BET Evansville -2.5</t>
+  </si>
+  <si>
+    <t>BET Boise St. -9.5</t>
+  </si>
+  <si>
+    <t>BET Kansas +11.5</t>
+  </si>
+  <si>
+    <t>BET Nevada -12.5</t>
   </si>
   <si>
     <t>North Carolina A&amp;T</t>
@@ -1477,130 +1516,34 @@
     <t>BET Morgan St. +2.5</t>
   </si>
   <si>
-    <t>BET Evansville -2.5</t>
-  </si>
-  <si>
     <t>Pepperdine</t>
   </si>
   <si>
     <t>BET Pepperdine -4.5</t>
   </si>
   <si>
-    <t>BET Iona -3.5</t>
-  </si>
-  <si>
-    <t>BET James Madison +2.5</t>
-  </si>
-  <si>
-    <t>BET Yale -8.5</t>
-  </si>
-  <si>
-    <t>BET Kentucky -4.5</t>
+    <t>BET Grambling St. +6.5</t>
+  </si>
+  <si>
+    <t>BET Rhode Island +8.5</t>
+  </si>
+  <si>
+    <t>BET Holy Cross +3.5</t>
+  </si>
+  <si>
+    <t>BET Towson -2.5</t>
+  </si>
+  <si>
+    <t>BET Xavier -10.5</t>
+  </si>
+  <si>
+    <t>BET Buffalo +3.5</t>
   </si>
   <si>
     <t>East Carolina</t>
   </si>
   <si>
-    <t>BET UNC Wilmington -5.5</t>
-  </si>
-  <si>
-    <t>BET Brown -3.5</t>
-  </si>
-  <si>
-    <t>BET Drexel -12.5</t>
-  </si>
-  <si>
-    <t>BET Boise St. -9.5</t>
-  </si>
-  <si>
-    <t>BET San Diego -6.5</t>
-  </si>
-  <si>
-    <t>BET South Carolina -9.5</t>
-  </si>
-  <si>
-    <t>BET Utah -12.5</t>
-  </si>
-  <si>
-    <t>BET Columbia -6.5</t>
-  </si>
-  <si>
-    <t>BET Texas A&amp;M -17.5</t>
-  </si>
-  <si>
-    <t>BET Murray St. -14.5</t>
-  </si>
-  <si>
-    <t>BET George Mason -15.5</t>
-  </si>
-  <si>
-    <t>LEAN Duke -11.5</t>
-  </si>
-  <si>
-    <t>LEAN Boston College -11.5</t>
-  </si>
-  <si>
-    <t>LEAN Xavier -10.5</t>
-  </si>
-  <si>
-    <t>LEAN Arkansas -22.5</t>
-  </si>
-  <si>
-    <t>San Diego St.</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>LEAN San Diego St. -15.5</t>
-  </si>
-  <si>
-    <t>LEAN Nevada -12.5</t>
-  </si>
-  <si>
-    <t>Rider</t>
-  </si>
-  <si>
-    <t>LEAN Rider +30.5</t>
-  </si>
-  <si>
-    <t>LEAN Rutgers -14.5</t>
-  </si>
-  <si>
-    <t>LEAN Mississippi -22.5</t>
-  </si>
-  <si>
-    <t>CONSIDER San Francisco -19.5</t>
-  </si>
-  <si>
-    <t>CONSIDER Alcorn St. +32.5</t>
-  </si>
-  <si>
-    <t>CONSIDER Syracuse -21.5</t>
-  </si>
-  <si>
-    <t>CONSIDER Florida St. -20.5</t>
-  </si>
-  <si>
-    <t>CONSIDER North Carolina -25.5</t>
-  </si>
-  <si>
-    <t>CONSIDER DePaul -22.5</t>
-  </si>
-  <si>
-    <t>CONSIDER UCLA -28.5</t>
-  </si>
-  <si>
-    <t>CONSIDER Cornell -17.5</t>
-  </si>
-  <si>
-    <t>CONSIDER Stanford -20.5</t>
-  </si>
-  <si>
-    <t>CONSIDER Seton Hall -25.5</t>
-  </si>
-  <si>
-    <t>CONSIDER California -22.5</t>
+    <t>LEAN UNC Wilmington -6.5</t>
   </si>
 </sst>
 </file>
@@ -2793,23 +2736,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.89453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1015625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2846,118 +2784,142 @@
       <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M1" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>274</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>-14.5</v>
       </c>
       <c r="E2">
-        <v>0.91052057363190442</v>
+        <v>2.3181600841518009E-19</v>
       </c>
       <c r="F2" t="s">
         <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J2">
-        <v>-4.4075517817605743</v>
+        <v>7.9315647472664486</v>
       </c>
       <c r="K2">
-        <v>4.6019669841059709</v>
+        <v>-9.0546504971375583</v>
       </c>
       <c r="L2">
-        <v>-0.20259940515951319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.4282889880974679</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C3" t="s">
-        <v>480</v>
+        <v>286</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>-4.5</v>
       </c>
       <c r="E3">
-        <v>0.90509992153478824</v>
+        <v>4.3611671311540685E-22</v>
       </c>
       <c r="F3" t="s">
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J3">
-        <v>-1.1499258298008641</v>
+        <v>4.0942531661255259</v>
       </c>
       <c r="K3">
-        <v>2.7237361760804788</v>
+        <v>0.52651588834319796</v>
       </c>
       <c r="L3">
-        <v>-5.5498223692212897E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>2.6989590068516402E-2</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>398</v>
       </c>
       <c r="C4" t="s">
-        <v>376</v>
+        <v>112</v>
       </c>
       <c r="D4">
-        <v>-2.5</v>
+        <v>-11.5</v>
       </c>
       <c r="E4">
-        <v>0.89999364766285861</v>
+        <v>1.9831397683253601E-20</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J4">
-        <v>-1.298775610906759</v>
+        <v>5.2697196560410617</v>
       </c>
       <c r="K4">
-        <v>1.0683888404247599</v>
+        <v>-5.2098069384111483</v>
       </c>
       <c r="L4">
-        <v>-6.1445319984146603E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2759028038949457</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s">
-        <v>483</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>373</v>
       </c>
       <c r="D5">
-        <v>-4.5</v>
+        <v>-12.5</v>
       </c>
       <c r="E5">
-        <v>0.89076143934359597</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -2966,18 +2928,24 @@
         <v>484</v>
       </c>
       <c r="J5">
-        <v>-5.0958382562571529</v>
+        <v>2.0051418511613832</v>
       </c>
       <c r="K5">
-        <v>-1.8079227748023361</v>
+        <v>-2.8776287062775618</v>
       </c>
       <c r="L5">
-        <v>-8.0966371877400606E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9.6900302184999898E-2</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B6" t="s">
         <v>344</v>
@@ -2989,7 +2957,7 @@
         <v>-3.5</v>
       </c>
       <c r="E6">
-        <v>0.887439030670234</v>
+        <v>3.353133508549073E-31</v>
       </c>
       <c r="F6" t="s">
         <v>89</v>
@@ -3006,22 +2974,28 @@
       <c r="L6">
         <v>8.2270441129082605E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>130</v>
       </c>
       <c r="D7">
-        <v>2.5</v>
+        <v>-9.5</v>
       </c>
       <c r="E7">
-        <v>0.88673646582780319</v>
+        <v>1.978452512143979E-19</v>
       </c>
       <c r="F7" t="s">
         <v>89</v>
@@ -3030,30 +3004,36 @@
         <v>486</v>
       </c>
       <c r="J7">
-        <v>3.1576968835152002</v>
+        <v>1.1980208288685641</v>
       </c>
       <c r="K7">
-        <v>5.9159255307837668</v>
+        <v>-5.8662816115774916</v>
       </c>
       <c r="L7">
-        <v>-7.5077113943064294E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.1836121916601304</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="D8">
-        <v>-8.5</v>
+        <v>-14.5</v>
       </c>
       <c r="E8">
-        <v>0.86791033018940644</v>
+        <v>1.235146570842163E-33</v>
       </c>
       <c r="F8" t="s">
         <v>89</v>
@@ -3062,30 +3042,36 @@
         <v>487</v>
       </c>
       <c r="J8">
-        <v>7.7179329851954179</v>
+        <v>3.8237311730329822</v>
       </c>
       <c r="K8">
-        <v>-1.7571199542921361</v>
+        <v>-1.783492398574438</v>
       </c>
       <c r="L8">
-        <v>0.22703274848116911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.14795479375997819</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="D9">
-        <v>-4.5</v>
+        <v>-12.5</v>
       </c>
       <c r="E9">
-        <v>0.86662422386799698</v>
+        <v>4.0193966184714482E-20</v>
       </c>
       <c r="F9" t="s">
         <v>89</v>
@@ -3094,158 +3080,188 @@
         <v>488</v>
       </c>
       <c r="J9">
-        <v>4.0942531661255259</v>
+        <v>8.972146988766923</v>
       </c>
       <c r="K9">
-        <v>0.52651588834319796</v>
+        <v>-3.9217690961916531</v>
       </c>
       <c r="L9">
-        <v>2.6989590068516402E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.33006252418946908</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
-        <v>418</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>489</v>
+        <v>376</v>
       </c>
       <c r="D10">
-        <v>-5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="E10">
-        <v>0.85926533827602236</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F10" t="s">
         <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J10">
-        <v>2.4635388029266641</v>
+        <v>-1.298775610906759</v>
       </c>
       <c r="K10">
-        <v>-0.37759259856051131</v>
+        <v>1.0683888404247599</v>
       </c>
       <c r="L10">
-        <v>7.5823938067789795E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>-6.1445319984146603E-2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>422</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="D11">
-        <v>-3.5</v>
+        <v>-9.5</v>
       </c>
       <c r="E11">
-        <v>0.85188148375631156</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="F11" t="s">
         <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J11">
-        <v>-2.3455234356986669</v>
+        <v>3.7882683522767309</v>
       </c>
       <c r="K11">
-        <v>-7.9470341170601841</v>
+        <v>-4.9625599646535079</v>
       </c>
       <c r="L11">
-        <v>0.1080583170330956</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.1759108193672016</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>101</v>
       </c>
       <c r="D12">
-        <v>-12.5</v>
+        <v>-11.5</v>
       </c>
       <c r="E12">
-        <v>0.84387121131779186</v>
+        <v>8.270497318391176E-14</v>
       </c>
       <c r="F12" t="s">
         <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J12">
-        <v>2.0051418511613832</v>
+        <v>5.1655830789215136</v>
       </c>
       <c r="K12">
-        <v>-2.8776287062775618</v>
+        <v>-0.89885998176538351</v>
       </c>
       <c r="L12">
-        <v>9.6900302184999898E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3.8136087875158403E-2</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B13" t="s">
-        <v>422</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>306</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>-9.5</v>
+        <v>-12.5</v>
       </c>
       <c r="E13">
-        <v>0.83078338752897007</v>
+        <v>0.99999999999987743</v>
       </c>
       <c r="F13" t="s">
         <v>89</v>
       </c>
       <c r="G13" t="s">
+        <v>492</v>
+      </c>
+      <c r="J13">
+        <v>6.2520870894462064</v>
+      </c>
+      <c r="K13">
+        <v>-1.626292581933882</v>
+      </c>
+      <c r="L13">
+        <v>0.21253096752498221</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>480</v>
+      </c>
+      <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
         <v>493</v>
       </c>
-      <c r="J13">
-        <v>3.7882683522767309</v>
-      </c>
-      <c r="K13">
-        <v>-4.9625599646535079</v>
-      </c>
-      <c r="L13">
-        <v>0.1759108193672016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>478</v>
-      </c>
-      <c r="B14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" t="s">
-        <v>292</v>
-      </c>
       <c r="D14">
-        <v>-6.5</v>
+        <v>2.5</v>
       </c>
       <c r="E14">
-        <v>0.80039792669931742</v>
+        <v>0.99999999999976152</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -3254,845 +3270,323 @@
         <v>494</v>
       </c>
       <c r="J14">
-        <v>8.0326170766720821</v>
+        <v>-1.1499258298008641</v>
       </c>
       <c r="K14">
-        <v>-8.3630683208582399E-2</v>
+        <v>2.7237361760804788</v>
       </c>
       <c r="L14">
-        <v>0.20184719283795879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>-5.5498223692212897E-2</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
+        <v>495</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="D15">
-        <v>-9.5</v>
+        <v>-4.5</v>
       </c>
       <c r="E15">
-        <v>0.79498724542047827</v>
+        <v>0.99999999999967071</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J15">
-        <v>1.1980208288685641</v>
+        <v>-5.0958382562571529</v>
       </c>
       <c r="K15">
-        <v>-5.8662816115774916</v>
+        <v>-1.8079227748023361</v>
       </c>
       <c r="L15">
-        <v>0.1836121916601304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>-8.0966371877400606E-2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="D16">
-        <v>-12.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E16">
-        <v>0.78824208260717243</v>
+        <v>1.3916211993561761E-11</v>
       </c>
       <c r="F16" t="s">
         <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="J16">
-        <v>8.972146988766923</v>
+        <v>8.0326170766720821</v>
       </c>
       <c r="K16">
-        <v>-3.9217690961916531</v>
+        <v>-8.3630683208582399E-2</v>
       </c>
       <c r="L16">
-        <v>0.33006252418946908</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.20184719283795879</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="D17">
-        <v>-6.5</v>
+        <v>-8.5</v>
       </c>
       <c r="E17">
-        <v>0.78732246303732134</v>
+        <v>1.4783733368527839E-11</v>
       </c>
       <c r="F17" t="s">
         <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="J17">
-        <v>3.4942780800506001E-2</v>
+        <v>7.7179329851954179</v>
       </c>
       <c r="K17">
-        <v>-1.679010114857292</v>
+        <v>-1.7571199542921361</v>
       </c>
       <c r="L17">
-        <v>3.9260916599151298E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.22703274848116911</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="D18">
-        <v>-17.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E18">
-        <v>0.7725992568273885</v>
+        <v>7.2083830541785769E-9</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J18">
-        <v>8.4200485270847878</v>
+        <v>-2.3455234356986669</v>
       </c>
       <c r="K18">
-        <v>-8.214669305578596</v>
+        <v>-7.9470341170601841</v>
       </c>
       <c r="L18">
-        <v>0.37562196554244442</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.1080583170330956</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>221</v>
+        <v>348</v>
       </c>
       <c r="D19">
-        <v>-14.5</v>
+        <v>2.5</v>
       </c>
       <c r="E19">
-        <v>0.7650701537546164</v>
+        <v>2.5456972609238969E-7</v>
       </c>
       <c r="F19" t="s">
         <v>89</v>
       </c>
       <c r="G19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="J19">
-        <v>3.8237311730329822</v>
+        <v>3.1576968835152002</v>
       </c>
       <c r="K19">
-        <v>-1.783492398574438</v>
+        <v>5.9159255307837668</v>
       </c>
       <c r="L19">
-        <v>0.14795479375997819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>-7.5077113943064294E-2</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D20">
-        <v>-15.5</v>
+        <v>-10.5</v>
       </c>
       <c r="E20">
-        <v>0.75136520684177555</v>
+        <v>0.99990245974823644</v>
       </c>
       <c r="F20" t="s">
         <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="J20">
-        <v>5.5991874818179639</v>
+        <v>1.5245152028601301</v>
       </c>
       <c r="K20">
-        <v>-7.2598325518603133</v>
+        <v>-8.3663363222176201</v>
       </c>
       <c r="L20">
-        <v>0.33959647129934961</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>0.2599889565876975</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D21">
-        <v>-11.5</v>
+        <v>3.5</v>
       </c>
       <c r="E21">
-        <v>0.73900292230220177</v>
+        <v>0.99835493914236317</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="J21">
-        <v>5.1655830789215136</v>
+        <v>-4.4075517817605743</v>
       </c>
       <c r="K21">
-        <v>-0.89885998176538351</v>
+        <v>4.6019669841059709</v>
       </c>
       <c r="L21">
-        <v>3.8136087875158403E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.20259940515951319</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B22" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>503</v>
       </c>
       <c r="D22">
-        <v>-11.5</v>
+        <v>-6.5</v>
       </c>
       <c r="E22">
-        <v>0.72412135044461678</v>
+        <v>0.79551547598932848</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J22">
-        <v>5.2697196560410617</v>
+        <v>2.4635388029266641</v>
       </c>
       <c r="K22">
-        <v>-5.2098069384111483</v>
+        <v>-0.37759259856051131</v>
       </c>
       <c r="L22">
-        <v>0.2759028038949457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>478</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23">
-        <v>-10.5</v>
-      </c>
-      <c r="E23">
-        <v>0.71148768973128917</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>503</v>
-      </c>
-      <c r="J23">
-        <v>1.5245152028601301</v>
-      </c>
-      <c r="K23">
-        <v>-8.3663363222176201</v>
-      </c>
-      <c r="L23">
-        <v>0.2599889565876975</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>478</v>
-      </c>
-      <c r="B24" t="s">
-        <v>359</v>
-      </c>
-      <c r="C24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D24">
-        <v>-22.5</v>
-      </c>
-      <c r="E24">
-        <v>0.70449719282397605</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>504</v>
-      </c>
-      <c r="J24">
-        <v>12.5528839141988</v>
-      </c>
-      <c r="K24">
-        <v>-9.9308735088086024</v>
-      </c>
-      <c r="L24">
-        <v>0.44772343842787371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>478</v>
-      </c>
-      <c r="B25" t="s">
-        <v>505</v>
-      </c>
-      <c r="C25" t="s">
-        <v>506</v>
-      </c>
-      <c r="D25">
-        <v>-15.5</v>
-      </c>
-      <c r="E25">
-        <v>0.69289542379006708</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>507</v>
-      </c>
-      <c r="J25">
-        <v>4.3911058431210392</v>
-      </c>
-      <c r="K25">
-        <v>-7.8896410878533354</v>
-      </c>
-      <c r="L25">
-        <v>0.2656711904803773</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>478</v>
-      </c>
-      <c r="B26" t="s">
-        <v>279</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26">
-        <v>-12.5</v>
-      </c>
-      <c r="E26">
-        <v>0.69187484046467462</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>508</v>
-      </c>
-      <c r="J26">
-        <v>6.2520870894462064</v>
-      </c>
-      <c r="K26">
-        <v>-1.626292581933882</v>
-      </c>
-      <c r="L26">
-        <v>0.21253096752498221</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>478</v>
-      </c>
-      <c r="B27" t="s">
-        <v>207</v>
-      </c>
-      <c r="C27" t="s">
-        <v>509</v>
-      </c>
-      <c r="D27">
-        <v>-30.5</v>
-      </c>
-      <c r="E27">
-        <v>0.32003431956343958</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>510</v>
-      </c>
-      <c r="J27">
-        <v>15.644465285876359</v>
-      </c>
-      <c r="K27">
-        <v>-13.56613651632132</v>
-      </c>
-      <c r="L27">
-        <v>0.64913809062549832</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>478</v>
-      </c>
-      <c r="B28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28">
-        <v>-14.5</v>
-      </c>
-      <c r="E28">
-        <v>0.67968942602399041</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>511</v>
-      </c>
-      <c r="J28">
-        <v>7.9315647472664486</v>
-      </c>
-      <c r="K28">
-        <v>-9.0546504971375583</v>
-      </c>
-      <c r="L28">
-        <v>0.4282889880974679</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>478</v>
-      </c>
-      <c r="B29" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29">
-        <v>-22.5</v>
-      </c>
-      <c r="E29">
-        <v>0.66813649922484941</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>512</v>
-      </c>
-      <c r="J29">
-        <v>14.769953749765479</v>
-      </c>
-      <c r="K29">
-        <v>-5.8819039043259522</v>
-      </c>
-      <c r="L29">
-        <v>0.47008322189184337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>478</v>
-      </c>
-      <c r="B30" t="s">
-        <v>269</v>
-      </c>
-      <c r="C30" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30">
-        <v>-19.5</v>
-      </c>
-      <c r="E30">
-        <v>0.64150773737754618</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>513</v>
-      </c>
-      <c r="J30">
-        <v>8.3167837107190223</v>
-      </c>
-      <c r="K30">
-        <v>-10.844677352214401</v>
-      </c>
-      <c r="L30">
-        <v>0.46896981700920609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>478</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31">
-        <v>-32.5</v>
-      </c>
-      <c r="E31">
-        <v>0.38434216940956911</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>514</v>
-      </c>
-      <c r="J31">
-        <v>16.447843824640572</v>
-      </c>
-      <c r="K31">
-        <v>-11.578074277557381</v>
-      </c>
-      <c r="L31">
-        <v>0.63391732064858686</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>478</v>
-      </c>
-      <c r="B32" t="s">
-        <v>434</v>
-      </c>
-      <c r="C32" t="s">
-        <v>300</v>
-      </c>
-      <c r="D32">
-        <v>-21.5</v>
-      </c>
-      <c r="E32">
-        <v>0.61322504557565849</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>515</v>
-      </c>
-      <c r="J32">
-        <v>11.84132880181096</v>
-      </c>
-      <c r="K32">
-        <v>-6.7430776177236709</v>
-      </c>
-      <c r="L32">
-        <v>0.43060395330859708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>478</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33">
-        <v>-20.5</v>
-      </c>
-      <c r="E33">
-        <v>0.60385342410485432</v>
-      </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>516</v>
-      </c>
-      <c r="J33">
-        <v>12.24541382037201</v>
-      </c>
-      <c r="K33">
-        <v>-10.16852344719277</v>
-      </c>
-      <c r="L33">
-        <v>0.5419322875744168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>478</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34">
-        <v>-25.5</v>
-      </c>
-      <c r="E34">
-        <v>0.59635841989206406</v>
-      </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>517</v>
-      </c>
-      <c r="J34">
-        <v>11.945484362619201</v>
-      </c>
-      <c r="K34">
-        <v>-12.50113898027173</v>
-      </c>
-      <c r="L34">
-        <v>0.49137414176276578</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>478</v>
-      </c>
-      <c r="B35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" t="s">
-        <v>414</v>
-      </c>
-      <c r="D35">
-        <v>-22.5</v>
-      </c>
-      <c r="E35">
-        <v>0.59088918675223212</v>
-      </c>
-      <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>518</v>
-      </c>
-      <c r="J35">
-        <v>14.131018386137169</v>
-      </c>
-      <c r="K35">
-        <v>-10.15375140127901</v>
-      </c>
-      <c r="L35">
-        <v>0.55983878389195341</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>478</v>
-      </c>
-      <c r="B36" t="s">
-        <v>328</v>
-      </c>
-      <c r="C36" t="s">
-        <v>334</v>
-      </c>
-      <c r="D36">
-        <v>-28.5</v>
-      </c>
-      <c r="E36">
-        <v>0.58630689192962782</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>519</v>
-      </c>
-      <c r="J36">
-        <v>13.36470540473276</v>
-      </c>
-      <c r="K36">
-        <v>-15.497531640913831</v>
-      </c>
-      <c r="L36">
-        <v>0.59566289497632474</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>478</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37">
-        <v>-17.5</v>
-      </c>
-      <c r="E37">
-        <v>0.57482864855894888</v>
-      </c>
-      <c r="F37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>520</v>
-      </c>
-      <c r="J37">
-        <v>12.012877917112601</v>
-      </c>
-      <c r="K37">
-        <v>-4.0280044171164064</v>
-      </c>
-      <c r="L37">
-        <v>0.32184991301177851</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>478</v>
-      </c>
-      <c r="B38" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38">
-        <v>-20.5</v>
-      </c>
-      <c r="E38">
-        <v>0.56937924156741837</v>
-      </c>
-      <c r="F38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>521</v>
-      </c>
-      <c r="J38">
-        <v>4.3796118086438156</v>
-      </c>
-      <c r="K38">
-        <v>-9.1138649187133183</v>
-      </c>
-      <c r="L38">
-        <v>0.34904845067183138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>478</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>380</v>
-      </c>
-      <c r="D39">
-        <v>-25.5</v>
-      </c>
-      <c r="E39">
-        <v>0.5627086213127428</v>
-      </c>
-      <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>522</v>
-      </c>
-      <c r="J39">
-        <v>13.982709928513261</v>
-      </c>
-      <c r="K39">
-        <v>-8.6502333671711966</v>
-      </c>
-      <c r="L39">
-        <v>0.51733732989642811</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>478</v>
-      </c>
-      <c r="B40" t="s">
-        <v>305</v>
-      </c>
-      <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40">
-        <v>-22.5</v>
-      </c>
-      <c r="E40">
-        <v>0.56131792855328289</v>
-      </c>
-      <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>523</v>
-      </c>
-      <c r="J40">
-        <v>10.9833621907904</v>
-      </c>
-      <c r="K40">
-        <v>-5.9119574533641384</v>
-      </c>
-      <c r="L40">
-        <v>0.42422644668279691</v>
+        <v>7.5823938067789795E-2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
